--- a/Part 4.xlsx
+++ b/Part 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1367" documentId="8_{93A4E5DB-860E-4167-9A35-2E12D6929254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06795AE5-CB9B-4B59-AA56-8B9A710BC744}"/>
+  <xr:revisionPtr revIDLastSave="1371" documentId="8_{93A4E5DB-860E-4167-9A35-2E12D6929254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C5712D-EAC9-4142-BE56-68922D80F32D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8ECA2D2-67A9-4CB2-BF12-33A7D5CF404A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{B8ECA2D2-67A9-4CB2-BF12-33A7D5CF404A}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 17" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -542,10 +544,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1198,15 +1200,15 @@
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="175">
@@ -1287,7 +1289,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1306,7 +1308,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
@@ -2000,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C13641-16CF-4E33-A0DE-DC612373B627}">
   <dimension ref="A1:O273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3062,7 +3064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E2A86A-B79B-44A1-A962-6D7FBAC0C657}">
   <dimension ref="A1:O297"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4191,9 +4195,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EE8A53-4DA6-4797-8701-39C8ACF875D5}">
-  <dimension ref="A1:O305"/>
+  <dimension ref="A1:O306"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4503,7 +4509,7 @@
     <row r="18" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
@@ -4518,9 +4524,7 @@
     <row r="19" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
@@ -4535,13 +4539,13 @@
     <row r="20" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="37" t="s">
-        <v>64</v>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -4552,7 +4556,9 @@
     <row r="21" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -4567,9 +4573,7 @@
     <row r="22" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="C22" s="37"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -4582,10 +4586,10 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="37" t="s">
-        <v>65</v>
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4598,55 +4602,71 @@
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21"/>
+    <row r="24" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="26"/>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="30"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
+    </row>
     <row r="28" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4763,7 +4783,7 @@
     <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="145" x14ac:dyDescent="0.35"/>
     <row r="146" x14ac:dyDescent="0.35"/>
     <row r="147" x14ac:dyDescent="0.35"/>
@@ -4925,6 +4945,7 @@
     <row r="303" x14ac:dyDescent="0.35"/>
     <row r="304" x14ac:dyDescent="0.35"/>
     <row r="305" x14ac:dyDescent="0.35"/>
+    <row r="306" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C8:D8"/>
@@ -4941,7 +4962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2F3575-0DDF-455C-8474-4737C3749E61}">
   <dimension ref="A1:P322"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5921,9 +5942,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B7C976-2AD1-468B-BC57-86BD0951E084}">
-  <dimension ref="A1:Q370"/>
+  <dimension ref="A1:Q373"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7243,15 +7266,15 @@
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="16"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -7262,11 +7285,9 @@
     <row r="67" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="12"/>
@@ -7281,9 +7302,7 @@
     <row r="68" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="64" t="s">
-        <v>134</v>
-      </c>
+      <c r="C68" s="64"/>
       <c r="D68" s="64"/>
       <c r="E68" s="64"/>
       <c r="F68" s="2"/>
@@ -7300,9 +7319,7 @@
     <row r="69" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="16"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="64" t="s">
-        <v>135</v>
-      </c>
+      <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -7317,15 +7334,17 @@
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="16"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -7334,17 +7353,17 @@
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="16"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -7356,7 +7375,7 @@
       <c r="A72" s="16"/>
       <c r="B72" s="2"/>
       <c r="C72" s="64" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -7392,7 +7411,7 @@
       <c r="A74" s="16"/>
       <c r="B74" s="2"/>
       <c r="C74" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -7411,7 +7430,7 @@
       <c r="A75" s="16"/>
       <c r="B75" s="2"/>
       <c r="C75" s="64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -7426,51 +7445,97 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="21"/>
-    </row>
-    <row r="77" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="22" t="s">
+    <row r="76" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="16"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="16"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="21"/>
+    </row>
+    <row r="80" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="26"/>
-      <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="38"/>
-    </row>
-    <row r="79" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="38"/>
-    </row>
-    <row r="80" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="38"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="26"/>
+      <c r="Q80" s="8"/>
     </row>
     <row r="81" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="38"/>
@@ -7479,7 +7544,7 @@
       <c r="B82" s="38"/>
     </row>
     <row r="83" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="66"/>
+      <c r="B83" s="38"/>
     </row>
     <row r="84" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="38"/>
@@ -7488,7 +7553,7 @@
       <c r="B85" s="38"/>
     </row>
     <row r="86" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="38"/>
+      <c r="B86" s="66"/>
     </row>
     <row r="87" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="38"/>
@@ -7500,22 +7565,22 @@
       <c r="B89" s="38"/>
     </row>
     <row r="90" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="66"/>
+      <c r="B90" s="38"/>
     </row>
     <row r="91" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="38"/>
     </row>
     <row r="92" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="66"/>
+      <c r="B92" s="38"/>
     </row>
     <row r="93" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="38"/>
+      <c r="B93" s="66"/>
     </row>
     <row r="94" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="38"/>
     </row>
     <row r="95" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="38"/>
+      <c r="B95" s="66"/>
     </row>
     <row r="96" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="38"/>
@@ -7524,7 +7589,7 @@
       <c r="B97" s="38"/>
     </row>
     <row r="98" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="66"/>
+      <c r="B98" s="38"/>
     </row>
     <row r="99" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="38"/>
@@ -7533,11 +7598,17 @@
       <c r="B100" s="38"/>
     </row>
     <row r="101" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="38"/>
-    </row>
-    <row r="102" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B101" s="66"/>
+    </row>
+    <row r="102" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="38"/>
+    </row>
+    <row r="103" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="38"/>
+    </row>
+    <row r="104" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="38"/>
+    </row>
     <row r="105" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7654,9 +7725,9 @@
     <row r="218" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="219" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="220" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" x14ac:dyDescent="0.35"/>
-    <row r="222" x14ac:dyDescent="0.35"/>
-    <row r="223" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="224" x14ac:dyDescent="0.35"/>
     <row r="225" x14ac:dyDescent="0.35"/>
     <row r="226" x14ac:dyDescent="0.35"/>
@@ -7804,6 +7875,9 @@
     <row r="368" x14ac:dyDescent="0.35"/>
     <row r="369" x14ac:dyDescent="0.35"/>
     <row r="370" x14ac:dyDescent="0.35"/>
+    <row r="371" x14ac:dyDescent="0.35"/>
+    <row r="372" x14ac:dyDescent="0.35"/>
+    <row r="373" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C25:F25"/>
@@ -7823,7 +7897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF4E1E2-7F7A-4D82-9775-712F96733E36}">
   <dimension ref="A1:O320"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Part 4.xlsx
+++ b/Part 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1371" documentId="8_{93A4E5DB-860E-4167-9A35-2E12D6929254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C5712D-EAC9-4142-BE56-68922D80F32D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DBE9F9-E6E3-4AAF-A162-77B8D1758767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{B8ECA2D2-67A9-4CB2-BF12-33A7D5CF404A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B8ECA2D2-67A9-4CB2-BF12-33A7D5CF404A}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 17" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="184">
   <si>
     <t>SHOW ALL WORK.</t>
   </si>
@@ -537,23 +537,97 @@
   </si>
   <si>
     <t>6.5 points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) </t>
+  </si>
+  <si>
+    <t>Difference =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net leverage ratio (before) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net leverage ratio (after) = </t>
+  </si>
+  <si>
+    <t>how to define surplus relief, gross leverage, calculation way? Net/Gross?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinsurance deals with the situation where leverage ratios are higher than desired. It's purchased with the intent of reducing leverage ratios net of reinsurance. The risker the insurance companies, the more capital they should hold as a reslut of regulation, and the higer the leverage ratio. As the above calculation showing, the net leverage ratio is reduced by 1.686 after entering into this agreement, so it provides surplus relief. </t>
+  </si>
+  <si>
+    <t>a) bookmark P11</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ii) Net earned premium = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i) Net written premium = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iii) Net unearned premium = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iv) Net incurred losses = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">v) Underwriting income = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vi) Net unpaid Claims = </t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>how to evaluate?</t>
+  </si>
+  <si>
+    <t>loss reserve, unearned premium…?</t>
+  </si>
+  <si>
+    <t>The first function is to increase large line capacity. If insurers are only willing to expose themselves to a certain amount of loss when the market demands higher coverage such as luxry cars, then the reinsurance is used to increase the capacity to insure larger value of customers. The second function is to stabilize loss experience. When the loss experience fluctuates a lot from year to year more than management desires, they might purchase reinsurance to stabilize it and simplify the capital management process. The third function is to facilitate withdrawal from a market segment. Suppose insurers want to exit a market and is not willing to wait until the runoff of existing obligations, they can transfer all the obligations to reinsurers.</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>The first modeling practice is to document how the use of earthquake models fits within their earthquake risk management process. In this case, the document will include PML estimates and how model are used to monitor exposures as well as make underwriting decisions. The second modeling parctice is to understand current modelling alternatives and why the model used is appropriate. Make sure to choose the best model that is available. The third modelling practice is having a sound understanding of the key assumptions, methodologies and limitations underlying the model used. Understand how different settings/parameters impact PML estimates and ensure to justify why the selected parameters are appropriate. Have the ability to handle related factors such as demand surge, fire following and business interruption. Be aware how changes in portfolio characteristics influence PML variability. Understand the modelled losses versus non-modelled losses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first risk is data quality. Senior management should understand the impact of data limitations and make adjustments to PML accordingly. It should be understood that large adjustment to the PML for the data quality is not a subsitute for corporate data capture. Aother non-modeled risk is related to non-modelled exposures and risk factors, which include exposure growth between the date of the data and the end of the relevant period of exposure, contingent business interruption, guaranteed replacement cost, increased seismicity after a large event, claim handling expenes and demand surge. The last risk is exposures to multiple regions. Earthquake PMLs have historically been based on the larger of the British Columbia or Quebec PMLs. This approach understates the PML for insurers with significant exposures in both earthquake zones. </t>
+  </si>
+  <si>
+    <t>https://www.osfi-bsif.gc.ca/Eng/fi-if/rg-ro/gdn-ort/gl-ld/Pages/b9mem.aspx</t>
+  </si>
+  <si>
+    <t>ERC</t>
+  </si>
+  <si>
+    <t>Earthquake Reserve Component (ERC) = Earthquake Risk Exposure− Financial Resources</t>
+  </si>
+  <si>
+    <t>https://www.casact.org/sites/default/files/old/studynotes_blanchard-klann-basic-rein-accounting.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +739,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1200,18 +1296,18 @@
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1289,7 +1385,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1308,19 +1403,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1341,9 +1424,6 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1357,7 +1437,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1377,7 +1457,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,15 +1475,15 @@
     <xf numFmtId="3" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1472,18 +1552,18 @@
     <xf numFmtId="2" fontId="7" fillId="4" borderId="23" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1505,7 +1585,7 @@
     <xf numFmtId="3" fontId="7" fillId="4" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1515,7 +1595,7 @@
     <xf numFmtId="3" fontId="15" fillId="4" borderId="37" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,13 +1623,13 @@
     <xf numFmtId="3" fontId="7" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1574,7 +1654,7 @@
     <xf numFmtId="2" fontId="7" fillId="4" borderId="27" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="23" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1582,13 +1662,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1597,6 +1673,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1605,6 +1719,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2000,30 +2122,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C13641-16CF-4E33-A0DE-DC612373B627}">
-  <dimension ref="A1:O273"/>
+  <dimension ref="A1:O278"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.26953125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="4" customWidth="1"/>
     <col min="10" max="10" width="5" style="4" customWidth="1"/>
-    <col min="11" max="12" width="11.453125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.54296875" style="4" customWidth="1"/>
-    <col min="14" max="57" width="11.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="22" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="4" customWidth="1"/>
+    <col min="14" max="57" width="11.42578125" style="4" customWidth="1"/>
     <col min="58" max="16384" width="0" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2"/>
@@ -2039,7 +2164,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2054,7 +2179,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2069,7 +2194,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -2086,7 +2211,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
@@ -2101,7 +2226,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
@@ -2119,7 +2244,7 @@
       <c r="M6" s="3"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -2134,14 +2259,14 @@
       <c r="L7" s="7"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="54">
+      <c r="E8" s="48">
         <v>6590</v>
       </c>
       <c r="F8" s="10"/>
@@ -2153,14 +2278,14 @@
       <c r="L8" s="7"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="54">
+      <c r="E9" s="48">
         <v>1980</v>
       </c>
       <c r="F9" s="10"/>
@@ -2172,14 +2297,14 @@
       <c r="L9" s="12"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="54">
+      <c r="E10" s="48">
         <v>7630</v>
       </c>
       <c r="F10" s="10"/>
@@ -2191,7 +2316,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
@@ -2206,7 +2331,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
@@ -2214,7 +2339,7 @@
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="52">
+      <c r="F12" s="47">
         <v>0.5</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2227,7 +2352,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
@@ -2250,7 +2375,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="9"/>
@@ -2265,7 +2390,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="9" t="s">
@@ -2282,10 +2407,10 @@
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="10"/>
@@ -2299,7 +2424,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="9"/>
@@ -2314,7 +2439,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
       <c r="C18" s="9" t="s">
@@ -2331,10 +2456,10 @@
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="10"/>
@@ -2348,7 +2473,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="9"/>
@@ -2363,7 +2488,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
       <c r="C21" s="9"/>
@@ -2378,7 +2503,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="9"/>
@@ -2393,7 +2518,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="9"/>
@@ -2408,7 +2533,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -2423,7 +2548,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>0</v>
       </c>
@@ -2441,7 +2566,7 @@
       <c r="M25" s="26"/>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -2456,9 +2581,13 @@
       <c r="L26" s="29"/>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
-      <c r="B27" s="27"/>
+    <row r="27" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="142" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>163</v>
+      </c>
       <c r="C27" s="28"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -2470,16 +2599,21 @@
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="30"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="143" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="29">
+        <f>(E8+E10)/H13</f>
+        <v>4.9547038327526129</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
@@ -2487,574 +2621,676 @@
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="30"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-    </row>
-    <row r="29" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="34"/>
-      <c r="H29" s="32"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="143" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="29">
+        <f>(E8+E10)*50%/J13</f>
+        <v>3.2689655172413792</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
-      <c r="K29" s="35"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="30"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-    </row>
-    <row r="30" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="41"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="144" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B29-B28</f>
+        <v>-1.6857383155112338</v>
+      </c>
+      <c r="C30" s="40"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="34"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-    </row>
-    <row r="31" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-    </row>
-    <row r="32" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="27"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="49"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-    </row>
-    <row r="49" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" x14ac:dyDescent="0.35"/>
-    <row r="205" x14ac:dyDescent="0.35"/>
-    <row r="206" x14ac:dyDescent="0.35"/>
-    <row r="207" x14ac:dyDescent="0.35"/>
-    <row r="208" x14ac:dyDescent="0.35"/>
-    <row r="209" x14ac:dyDescent="0.35"/>
-    <row r="210" x14ac:dyDescent="0.35"/>
-    <row r="211" x14ac:dyDescent="0.35"/>
-    <row r="212" x14ac:dyDescent="0.35"/>
-    <row r="213" x14ac:dyDescent="0.35"/>
-    <row r="214" x14ac:dyDescent="0.35"/>
-    <row r="215" x14ac:dyDescent="0.35"/>
-    <row r="216" x14ac:dyDescent="0.35"/>
-    <row r="217" x14ac:dyDescent="0.35"/>
-    <row r="218" x14ac:dyDescent="0.35"/>
-    <row r="219" x14ac:dyDescent="0.35"/>
-    <row r="220" x14ac:dyDescent="0.35"/>
-    <row r="221" x14ac:dyDescent="0.35"/>
-    <row r="222" x14ac:dyDescent="0.35"/>
-    <row r="223" x14ac:dyDescent="0.35"/>
-    <row r="224" x14ac:dyDescent="0.35"/>
-    <row r="225" x14ac:dyDescent="0.35"/>
-    <row r="226" x14ac:dyDescent="0.35"/>
-    <row r="227" x14ac:dyDescent="0.35"/>
-    <row r="228" x14ac:dyDescent="0.35"/>
-    <row r="229" x14ac:dyDescent="0.35"/>
-    <row r="230" x14ac:dyDescent="0.35"/>
-    <row r="231" x14ac:dyDescent="0.35"/>
-    <row r="232" x14ac:dyDescent="0.35"/>
-    <row r="233" x14ac:dyDescent="0.35"/>
-    <row r="234" x14ac:dyDescent="0.35"/>
-    <row r="235" x14ac:dyDescent="0.35"/>
-    <row r="236" x14ac:dyDescent="0.35"/>
-    <row r="237" x14ac:dyDescent="0.35"/>
-    <row r="238" x14ac:dyDescent="0.35"/>
-    <row r="239" x14ac:dyDescent="0.35"/>
-    <row r="240" x14ac:dyDescent="0.35"/>
-    <row r="241" x14ac:dyDescent="0.35"/>
-    <row r="242" x14ac:dyDescent="0.35"/>
-    <row r="243" x14ac:dyDescent="0.35"/>
-    <row r="244" x14ac:dyDescent="0.35"/>
-    <row r="245" x14ac:dyDescent="0.35"/>
-    <row r="246" x14ac:dyDescent="0.35"/>
-    <row r="247" x14ac:dyDescent="0.35"/>
-    <row r="248" x14ac:dyDescent="0.35"/>
-    <row r="249" x14ac:dyDescent="0.35"/>
-    <row r="250" x14ac:dyDescent="0.35"/>
-    <row r="251" x14ac:dyDescent="0.35"/>
-    <row r="252" x14ac:dyDescent="0.35"/>
-    <row r="253" x14ac:dyDescent="0.35"/>
-    <row r="254" x14ac:dyDescent="0.35"/>
-    <row r="255" x14ac:dyDescent="0.35"/>
-    <row r="256" x14ac:dyDescent="0.35"/>
-    <row r="257" x14ac:dyDescent="0.35"/>
-    <row r="258" x14ac:dyDescent="0.35"/>
-    <row r="259" x14ac:dyDescent="0.35"/>
-    <row r="260" x14ac:dyDescent="0.35"/>
-    <row r="261" x14ac:dyDescent="0.35"/>
-    <row r="262" x14ac:dyDescent="0.35"/>
-    <row r="263" x14ac:dyDescent="0.35"/>
-    <row r="264" x14ac:dyDescent="0.35"/>
-    <row r="265" x14ac:dyDescent="0.35"/>
-    <row r="266" x14ac:dyDescent="0.35"/>
-    <row r="267" x14ac:dyDescent="0.35"/>
-    <row r="268" x14ac:dyDescent="0.35"/>
-    <row r="269" x14ac:dyDescent="0.35"/>
-    <row r="270" x14ac:dyDescent="0.35"/>
-    <row r="271" x14ac:dyDescent="0.35"/>
-    <row r="272" x14ac:dyDescent="0.35"/>
-    <row r="273" x14ac:dyDescent="0.35"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="150" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="150"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="150"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="33"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="150" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="150"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="150"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="150"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="150"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="141"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="141"/>
+      <c r="M40" s="141"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="141"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="141"/>
+      <c r="B42" s="141"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="141"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+    </row>
+    <row r="49" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+    </row>
+    <row r="50" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+    </row>
+    <row r="51" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+    </row>
+    <row r="52" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+    </row>
+    <row r="53" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+    </row>
+    <row r="54" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" x14ac:dyDescent="0.25"/>
+    <row r="210" x14ac:dyDescent="0.25"/>
+    <row r="211" x14ac:dyDescent="0.25"/>
+    <row r="212" x14ac:dyDescent="0.25"/>
+    <row r="213" x14ac:dyDescent="0.25"/>
+    <row r="214" x14ac:dyDescent="0.25"/>
+    <row r="215" x14ac:dyDescent="0.25"/>
+    <row r="216" x14ac:dyDescent="0.25"/>
+    <row r="217" x14ac:dyDescent="0.25"/>
+    <row r="218" x14ac:dyDescent="0.25"/>
+    <row r="219" x14ac:dyDescent="0.25"/>
+    <row r="220" x14ac:dyDescent="0.25"/>
+    <row r="221" x14ac:dyDescent="0.25"/>
+    <row r="222" x14ac:dyDescent="0.25"/>
+    <row r="223" x14ac:dyDescent="0.25"/>
+    <row r="224" x14ac:dyDescent="0.25"/>
+    <row r="225" x14ac:dyDescent="0.25"/>
+    <row r="226" x14ac:dyDescent="0.25"/>
+    <row r="227" x14ac:dyDescent="0.25"/>
+    <row r="228" x14ac:dyDescent="0.25"/>
+    <row r="229" x14ac:dyDescent="0.25"/>
+    <row r="230" x14ac:dyDescent="0.25"/>
+    <row r="231" x14ac:dyDescent="0.25"/>
+    <row r="232" x14ac:dyDescent="0.25"/>
+    <row r="233" x14ac:dyDescent="0.25"/>
+    <row r="234" x14ac:dyDescent="0.25"/>
+    <row r="235" x14ac:dyDescent="0.25"/>
+    <row r="236" x14ac:dyDescent="0.25"/>
+    <row r="237" x14ac:dyDescent="0.25"/>
+    <row r="238" x14ac:dyDescent="0.25"/>
+    <row r="239" x14ac:dyDescent="0.25"/>
+    <row r="240" x14ac:dyDescent="0.25"/>
+    <row r="241" x14ac:dyDescent="0.25"/>
+    <row r="242" x14ac:dyDescent="0.25"/>
+    <row r="243" x14ac:dyDescent="0.25"/>
+    <row r="244" x14ac:dyDescent="0.25"/>
+    <row r="245" x14ac:dyDescent="0.25"/>
+    <row r="246" x14ac:dyDescent="0.25"/>
+    <row r="247" x14ac:dyDescent="0.25"/>
+    <row r="248" x14ac:dyDescent="0.25"/>
+    <row r="249" x14ac:dyDescent="0.25"/>
+    <row r="250" x14ac:dyDescent="0.25"/>
+    <row r="251" x14ac:dyDescent="0.25"/>
+    <row r="252" x14ac:dyDescent="0.25"/>
+    <row r="253" x14ac:dyDescent="0.25"/>
+    <row r="254" x14ac:dyDescent="0.25"/>
+    <row r="255" x14ac:dyDescent="0.25"/>
+    <row r="256" x14ac:dyDescent="0.25"/>
+    <row r="257" x14ac:dyDescent="0.25"/>
+    <row r="258" x14ac:dyDescent="0.25"/>
+    <row r="259" x14ac:dyDescent="0.25"/>
+    <row r="260" x14ac:dyDescent="0.25"/>
+    <row r="261" x14ac:dyDescent="0.25"/>
+    <row r="262" x14ac:dyDescent="0.25"/>
+    <row r="263" x14ac:dyDescent="0.25"/>
+    <row r="264" x14ac:dyDescent="0.25"/>
+    <row r="265" x14ac:dyDescent="0.25"/>
+    <row r="266" x14ac:dyDescent="0.25"/>
+    <row r="267" x14ac:dyDescent="0.25"/>
+    <row r="268" x14ac:dyDescent="0.25"/>
+    <row r="269" x14ac:dyDescent="0.25"/>
+    <row r="270" x14ac:dyDescent="0.25"/>
+    <row r="271" x14ac:dyDescent="0.25"/>
+    <row r="272" x14ac:dyDescent="0.25"/>
+    <row r="273" x14ac:dyDescent="0.25"/>
+    <row r="274" x14ac:dyDescent="0.25"/>
+    <row r="275" x14ac:dyDescent="0.25"/>
+    <row r="276" x14ac:dyDescent="0.25"/>
+    <row r="277" x14ac:dyDescent="0.25"/>
+    <row r="278" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A31:M33"/>
+    <mergeCell ref="A36:M39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3064,26 +3300,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E2A86A-B79B-44A1-A962-6D7FBAC0C657}">
   <dimension ref="A1:O297"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="4" customWidth="1"/>
-    <col min="7" max="12" width="11.453125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" style="4" customWidth="1"/>
-    <col min="14" max="57" width="11.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
+    <col min="7" max="12" width="11.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="4" customWidth="1"/>
+    <col min="14" max="57" width="11.42578125" style="4" customWidth="1"/>
     <col min="58" max="16384" width="0" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="2"/>
@@ -3099,7 +3335,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3114,7 +3350,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3129,7 +3365,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>53</v>
@@ -3146,7 +3382,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
@@ -3161,7 +3397,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
@@ -3179,7 +3415,7 @@
       <c r="M6" s="3"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
@@ -3196,7 +3432,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
@@ -3211,7 +3447,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="9" t="s">
@@ -3228,13 +3464,13 @@
       <c r="L9" s="7"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="6"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10">
@@ -3247,7 +3483,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="9" t="s">
@@ -3268,7 +3504,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
@@ -3285,7 +3521,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
@@ -3302,7 +3538,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="9" t="s">
@@ -3319,7 +3555,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="9" t="s">
@@ -3336,7 +3572,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="9"/>
@@ -3351,7 +3587,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="9" t="s">
@@ -3368,7 +3604,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
       <c r="C18" s="10"/>
@@ -3383,20 +3619,20 @@
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="56" t="s">
+      <c r="D19" s="155"/>
+      <c r="E19" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="51" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="10"/>
@@ -3406,20 +3642,20 @@
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="153"/>
       <c r="E20" s="14">
         <v>400</v>
       </c>
       <c r="F20" s="14">
         <v>100</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="52">
         <v>0.25</v>
       </c>
       <c r="H20" s="2"/>
@@ -3429,20 +3665,20 @@
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="149"/>
+      <c r="D21" s="153"/>
       <c r="E21" s="14">
         <v>800</v>
       </c>
       <c r="F21" s="14">
         <v>200</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="52">
         <v>0.5</v>
       </c>
       <c r="H21" s="2"/>
@@ -3452,20 +3688,20 @@
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="149" t="s">
+      <c r="C22" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="149"/>
+      <c r="D22" s="153"/>
       <c r="E22" s="14">
         <v>1200</v>
       </c>
       <c r="F22" s="14">
         <v>400</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="52">
         <v>0.25</v>
       </c>
       <c r="H22" s="2"/>
@@ -3475,7 +3711,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
@@ -3490,7 +3726,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="9" t="s">
@@ -3507,7 +3743,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
       <c r="C25" s="9" t="s">
@@ -3524,7 +3760,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="9"/>
@@ -3539,14 +3775,14 @@
       <c r="L26" s="2"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="62"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="56"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="2"/>
@@ -3556,14 +3792,14 @@
       <c r="L27" s="2"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="63">
+      <c r="D28" s="49"/>
+      <c r="E28" s="57">
         <v>2650</v>
       </c>
       <c r="F28" s="12"/>
@@ -3575,14 +3811,14 @@
       <c r="L28" s="2"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="63">
+      <c r="D29" s="49"/>
+      <c r="E29" s="57">
         <v>1050</v>
       </c>
       <c r="F29" s="12"/>
@@ -3594,14 +3830,14 @@
       <c r="L29" s="2"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="63">
+      <c r="D30" s="49"/>
+      <c r="E30" s="57">
         <v>1200</v>
       </c>
       <c r="F30" s="12"/>
@@ -3613,14 +3849,14 @@
       <c r="L30" s="2"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="63">
+      <c r="D31" s="49"/>
+      <c r="E31" s="57">
         <v>200</v>
       </c>
       <c r="F31" s="12"/>
@@ -3632,14 +3868,14 @@
       <c r="L31" s="2"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="63">
+      <c r="D32" s="49"/>
+      <c r="E32" s="57">
         <v>0</v>
       </c>
       <c r="F32" s="12"/>
@@ -3651,14 +3887,14 @@
       <c r="L32" s="2"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="63">
+      <c r="D33" s="49"/>
+      <c r="E33" s="57">
         <v>1800</v>
       </c>
       <c r="F33" s="12"/>
@@ -3670,12 +3906,12 @@
       <c r="L33" s="2"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="2"/>
@@ -3685,7 +3921,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
       <c r="C35" s="7" t="s">
@@ -3702,10 +3938,10 @@
       <c r="L35" s="2"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="2"/>
@@ -3719,10 +3955,10 @@
       <c r="L36" s="2"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="59" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="2"/>
@@ -3736,10 +3972,10 @@
       <c r="L37" s="2"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="59" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="2"/>
@@ -3753,10 +3989,10 @@
       <c r="L38" s="2"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="59" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="2"/>
@@ -3770,10 +4006,10 @@
       <c r="L39" s="2"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="59" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="2"/>
@@ -3787,10 +4023,10 @@
       <c r="L40" s="2"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="59" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="2"/>
@@ -3804,10 +4040,10 @@
       <c r="L41" s="2"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="59" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="2"/>
@@ -3821,7 +4057,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
@@ -3836,7 +4072,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
       <c r="C44" s="7" t="s">
@@ -3853,10 +4089,10 @@
       <c r="L44" s="2"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="36" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="2"/>
@@ -3870,7 +4106,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3885,7 +4121,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
@@ -3900,7 +4136,7 @@
       <c r="L47" s="20"/>
       <c r="M47" s="21"/>
     </row>
-    <row r="48" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>0</v>
       </c>
@@ -3918,7 +4154,7 @@
       <c r="M48" s="26"/>
       <c r="O48" s="8"/>
     </row>
-    <row r="49" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="28"/>
@@ -3933,260 +4169,345 @@
       <c r="L49" s="29"/>
       <c r="M49" s="30"/>
     </row>
-    <row r="50" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" x14ac:dyDescent="0.35"/>
-    <row r="204" x14ac:dyDescent="0.35"/>
-    <row r="205" x14ac:dyDescent="0.35"/>
-    <row r="206" x14ac:dyDescent="0.35"/>
-    <row r="207" x14ac:dyDescent="0.35"/>
-    <row r="208" x14ac:dyDescent="0.35"/>
-    <row r="209" x14ac:dyDescent="0.35"/>
-    <row r="210" x14ac:dyDescent="0.35"/>
-    <row r="211" x14ac:dyDescent="0.35"/>
-    <row r="212" x14ac:dyDescent="0.35"/>
-    <row r="213" x14ac:dyDescent="0.35"/>
-    <row r="214" x14ac:dyDescent="0.35"/>
-    <row r="215" x14ac:dyDescent="0.35"/>
-    <row r="216" x14ac:dyDescent="0.35"/>
-    <row r="217" x14ac:dyDescent="0.35"/>
-    <row r="218" x14ac:dyDescent="0.35"/>
-    <row r="219" x14ac:dyDescent="0.35"/>
-    <row r="220" x14ac:dyDescent="0.35"/>
-    <row r="221" x14ac:dyDescent="0.35"/>
-    <row r="222" x14ac:dyDescent="0.35"/>
-    <row r="223" x14ac:dyDescent="0.35"/>
-    <row r="224" x14ac:dyDescent="0.35"/>
-    <row r="225" x14ac:dyDescent="0.35"/>
-    <row r="226" x14ac:dyDescent="0.35"/>
-    <row r="227" x14ac:dyDescent="0.35"/>
-    <row r="228" x14ac:dyDescent="0.35"/>
-    <row r="229" x14ac:dyDescent="0.35"/>
-    <row r="230" x14ac:dyDescent="0.35"/>
-    <row r="231" x14ac:dyDescent="0.35"/>
-    <row r="232" x14ac:dyDescent="0.35"/>
-    <row r="233" x14ac:dyDescent="0.35"/>
-    <row r="234" x14ac:dyDescent="0.35"/>
-    <row r="235" x14ac:dyDescent="0.35"/>
-    <row r="236" x14ac:dyDescent="0.35"/>
-    <row r="237" x14ac:dyDescent="0.35"/>
-    <row r="238" x14ac:dyDescent="0.35"/>
-    <row r="239" x14ac:dyDescent="0.35"/>
-    <row r="240" x14ac:dyDescent="0.35"/>
-    <row r="241" x14ac:dyDescent="0.35"/>
-    <row r="242" x14ac:dyDescent="0.35"/>
-    <row r="243" x14ac:dyDescent="0.35"/>
-    <row r="244" x14ac:dyDescent="0.35"/>
-    <row r="245" x14ac:dyDescent="0.35"/>
-    <row r="246" x14ac:dyDescent="0.35"/>
-    <row r="247" x14ac:dyDescent="0.35"/>
-    <row r="248" x14ac:dyDescent="0.35"/>
-    <row r="249" x14ac:dyDescent="0.35"/>
-    <row r="250" x14ac:dyDescent="0.35"/>
-    <row r="251" x14ac:dyDescent="0.35"/>
-    <row r="252" x14ac:dyDescent="0.35"/>
-    <row r="253" x14ac:dyDescent="0.35"/>
-    <row r="254" x14ac:dyDescent="0.35"/>
-    <row r="255" x14ac:dyDescent="0.35"/>
-    <row r="256" x14ac:dyDescent="0.35"/>
-    <row r="257" x14ac:dyDescent="0.35"/>
-    <row r="258" x14ac:dyDescent="0.35"/>
-    <row r="259" x14ac:dyDescent="0.35"/>
-    <row r="260" x14ac:dyDescent="0.35"/>
-    <row r="261" x14ac:dyDescent="0.35"/>
-    <row r="262" x14ac:dyDescent="0.35"/>
-    <row r="263" x14ac:dyDescent="0.35"/>
-    <row r="264" x14ac:dyDescent="0.35"/>
-    <row r="265" x14ac:dyDescent="0.35"/>
-    <row r="266" x14ac:dyDescent="0.35"/>
-    <row r="267" x14ac:dyDescent="0.35"/>
-    <row r="268" x14ac:dyDescent="0.35"/>
-    <row r="269" x14ac:dyDescent="0.35"/>
-    <row r="270" x14ac:dyDescent="0.35"/>
-    <row r="271" x14ac:dyDescent="0.35"/>
-    <row r="272" x14ac:dyDescent="0.35"/>
-    <row r="273" x14ac:dyDescent="0.35"/>
-    <row r="274" x14ac:dyDescent="0.35"/>
-    <row r="275" x14ac:dyDescent="0.35"/>
-    <row r="276" x14ac:dyDescent="0.35"/>
-    <row r="277" x14ac:dyDescent="0.35"/>
-    <row r="278" x14ac:dyDescent="0.35"/>
-    <row r="279" x14ac:dyDescent="0.35"/>
-    <row r="280" x14ac:dyDescent="0.35"/>
-    <row r="281" x14ac:dyDescent="0.35"/>
-    <row r="282" x14ac:dyDescent="0.35"/>
-    <row r="283" x14ac:dyDescent="0.35"/>
-    <row r="284" x14ac:dyDescent="0.35"/>
-    <row r="285" x14ac:dyDescent="0.35"/>
-    <row r="286" x14ac:dyDescent="0.35"/>
-    <row r="287" x14ac:dyDescent="0.35"/>
-    <row r="288" x14ac:dyDescent="0.35"/>
-    <row r="289" x14ac:dyDescent="0.35"/>
-    <row r="290" x14ac:dyDescent="0.35"/>
-    <row r="291" x14ac:dyDescent="0.35"/>
-    <row r="292" x14ac:dyDescent="0.35"/>
-    <row r="293" x14ac:dyDescent="0.35"/>
-    <row r="294" x14ac:dyDescent="0.35"/>
-    <row r="295" x14ac:dyDescent="0.35"/>
-    <row r="296" x14ac:dyDescent="0.35"/>
-    <row r="297" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="147" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="146">
+        <f>E28</f>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="151" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="151"/>
+      <c r="C52" s="151"/>
+      <c r="D52" s="145">
+        <f>E29-E11</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="152" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="152"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="145">
+        <f>D51-D52</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="151"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="145">
+        <f>MIN(E30, G10)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="151" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="151"/>
+      <c r="C55" s="151"/>
+      <c r="D55" s="145">
+        <f>D52-D54-E31</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="151"/>
+      <c r="C56" s="151"/>
+      <c r="D56" s="146">
+        <f>D54-D52</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" x14ac:dyDescent="0.25"/>
+    <row r="204" x14ac:dyDescent="0.25"/>
+    <row r="205" x14ac:dyDescent="0.25"/>
+    <row r="206" x14ac:dyDescent="0.25"/>
+    <row r="207" x14ac:dyDescent="0.25"/>
+    <row r="208" x14ac:dyDescent="0.25"/>
+    <row r="209" x14ac:dyDescent="0.25"/>
+    <row r="210" x14ac:dyDescent="0.25"/>
+    <row r="211" x14ac:dyDescent="0.25"/>
+    <row r="212" x14ac:dyDescent="0.25"/>
+    <row r="213" x14ac:dyDescent="0.25"/>
+    <row r="214" x14ac:dyDescent="0.25"/>
+    <row r="215" x14ac:dyDescent="0.25"/>
+    <row r="216" x14ac:dyDescent="0.25"/>
+    <row r="217" x14ac:dyDescent="0.25"/>
+    <row r="218" x14ac:dyDescent="0.25"/>
+    <row r="219" x14ac:dyDescent="0.25"/>
+    <row r="220" x14ac:dyDescent="0.25"/>
+    <row r="221" x14ac:dyDescent="0.25"/>
+    <row r="222" x14ac:dyDescent="0.25"/>
+    <row r="223" x14ac:dyDescent="0.25"/>
+    <row r="224" x14ac:dyDescent="0.25"/>
+    <row r="225" x14ac:dyDescent="0.25"/>
+    <row r="226" x14ac:dyDescent="0.25"/>
+    <row r="227" x14ac:dyDescent="0.25"/>
+    <row r="228" x14ac:dyDescent="0.25"/>
+    <row r="229" x14ac:dyDescent="0.25"/>
+    <row r="230" x14ac:dyDescent="0.25"/>
+    <row r="231" x14ac:dyDescent="0.25"/>
+    <row r="232" x14ac:dyDescent="0.25"/>
+    <row r="233" x14ac:dyDescent="0.25"/>
+    <row r="234" x14ac:dyDescent="0.25"/>
+    <row r="235" x14ac:dyDescent="0.25"/>
+    <row r="236" x14ac:dyDescent="0.25"/>
+    <row r="237" x14ac:dyDescent="0.25"/>
+    <row r="238" x14ac:dyDescent="0.25"/>
+    <row r="239" x14ac:dyDescent="0.25"/>
+    <row r="240" x14ac:dyDescent="0.25"/>
+    <row r="241" x14ac:dyDescent="0.25"/>
+    <row r="242" x14ac:dyDescent="0.25"/>
+    <row r="243" x14ac:dyDescent="0.25"/>
+    <row r="244" x14ac:dyDescent="0.25"/>
+    <row r="245" x14ac:dyDescent="0.25"/>
+    <row r="246" x14ac:dyDescent="0.25"/>
+    <row r="247" x14ac:dyDescent="0.25"/>
+    <row r="248" x14ac:dyDescent="0.25"/>
+    <row r="249" x14ac:dyDescent="0.25"/>
+    <row r="250" x14ac:dyDescent="0.25"/>
+    <row r="251" x14ac:dyDescent="0.25"/>
+    <row r="252" x14ac:dyDescent="0.25"/>
+    <row r="253" x14ac:dyDescent="0.25"/>
+    <row r="254" x14ac:dyDescent="0.25"/>
+    <row r="255" x14ac:dyDescent="0.25"/>
+    <row r="256" x14ac:dyDescent="0.25"/>
+    <row r="257" x14ac:dyDescent="0.25"/>
+    <row r="258" x14ac:dyDescent="0.25"/>
+    <row r="259" x14ac:dyDescent="0.25"/>
+    <row r="260" x14ac:dyDescent="0.25"/>
+    <row r="261" x14ac:dyDescent="0.25"/>
+    <row r="262" x14ac:dyDescent="0.25"/>
+    <row r="263" x14ac:dyDescent="0.25"/>
+    <row r="264" x14ac:dyDescent="0.25"/>
+    <row r="265" x14ac:dyDescent="0.25"/>
+    <row r="266" x14ac:dyDescent="0.25"/>
+    <row r="267" x14ac:dyDescent="0.25"/>
+    <row r="268" x14ac:dyDescent="0.25"/>
+    <row r="269" x14ac:dyDescent="0.25"/>
+    <row r="270" x14ac:dyDescent="0.25"/>
+    <row r="271" x14ac:dyDescent="0.25"/>
+    <row r="272" x14ac:dyDescent="0.25"/>
+    <row r="273" x14ac:dyDescent="0.25"/>
+    <row r="274" x14ac:dyDescent="0.25"/>
+    <row r="275" x14ac:dyDescent="0.25"/>
+    <row r="276" x14ac:dyDescent="0.25"/>
+    <row r="277" x14ac:dyDescent="0.25"/>
+    <row r="278" x14ac:dyDescent="0.25"/>
+    <row r="279" x14ac:dyDescent="0.25"/>
+    <row r="280" x14ac:dyDescent="0.25"/>
+    <row r="281" x14ac:dyDescent="0.25"/>
+    <row r="282" x14ac:dyDescent="0.25"/>
+    <row r="283" x14ac:dyDescent="0.25"/>
+    <row r="284" x14ac:dyDescent="0.25"/>
+    <row r="285" x14ac:dyDescent="0.25"/>
+    <row r="286" x14ac:dyDescent="0.25"/>
+    <row r="287" x14ac:dyDescent="0.25"/>
+    <row r="288" x14ac:dyDescent="0.25"/>
+    <row r="289" x14ac:dyDescent="0.25"/>
+    <row r="290" x14ac:dyDescent="0.25"/>
+    <row r="291" x14ac:dyDescent="0.25"/>
+    <row r="292" x14ac:dyDescent="0.25"/>
+    <row r="293" x14ac:dyDescent="0.25"/>
+    <row r="294" x14ac:dyDescent="0.25"/>
+    <row r="295" x14ac:dyDescent="0.25"/>
+    <row r="296" x14ac:dyDescent="0.25"/>
+    <row r="297" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4195,31 +4516,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EE8A53-4DA6-4797-8701-39C8ACF875D5}">
-  <dimension ref="A1:O306"/>
+  <dimension ref="A1:O313"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.453125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" style="4" customWidth="1"/>
-    <col min="14" max="57" width="11.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="4" customWidth="1"/>
+    <col min="14" max="57" width="11.42578125" style="4" customWidth="1"/>
     <col min="58" max="16384" width="0" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="2"/>
@@ -4235,7 +4556,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4250,7 +4571,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4265,7 +4586,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -4282,7 +4603,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
@@ -4297,7 +4618,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
@@ -4315,7 +4636,7 @@
       <c r="M6" s="3"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -4330,14 +4651,14 @@
       <c r="L7" s="7"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="68">
+      <c r="D8" s="159"/>
+      <c r="E8" s="62">
         <v>1654</v>
       </c>
       <c r="F8" s="7"/>
@@ -4349,14 +4670,14 @@
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="69">
+      <c r="D9" s="159"/>
+      <c r="E9" s="63">
         <v>1323</v>
       </c>
       <c r="F9" s="7"/>
@@ -4368,14 +4689,14 @@
       <c r="L9" s="2"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="E10" s="69">
+      <c r="D10" s="159"/>
+      <c r="E10" s="63">
         <v>3804</v>
       </c>
       <c r="F10" s="7"/>
@@ -4387,14 +4708,14 @@
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="152" t="s">
+      <c r="C11" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="153"/>
-      <c r="E11" s="69">
+      <c r="D11" s="159"/>
+      <c r="E11" s="63">
         <v>3043</v>
       </c>
       <c r="F11" s="7"/>
@@ -4406,7 +4727,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
@@ -4421,7 +4742,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
@@ -4432,7 +4753,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="67">
+      <c r="I13" s="61">
         <v>4000</v>
       </c>
       <c r="J13" s="7"/>
@@ -4440,13 +4761,13 @@
       <c r="L13" s="7"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="52"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="6"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -4457,7 +4778,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
@@ -4472,7 +4793,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7" t="s">
@@ -4489,10 +4810,10 @@
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="58" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="2"/>
@@ -4506,10 +4827,10 @@
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="64"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
@@ -4521,10 +4842,12 @@
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
@@ -4536,16 +4859,16 @@
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="7" t="s">
-        <v>10</v>
+      <c r="C20" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -4553,12 +4876,10 @@
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="37" t="s">
-        <v>64</v>
-      </c>
+      <c r="C21" s="36"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -4570,10 +4891,12 @@
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -4585,11 +4908,11 @@
       <c r="L22" s="2"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7" t="s">
-        <v>6</v>
+    <row r="23" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4602,352 +4925,609 @@
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="22" t="s">
+    <row r="24" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
-      <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" x14ac:dyDescent="0.35"/>
-    <row r="146" x14ac:dyDescent="0.35"/>
-    <row r="147" x14ac:dyDescent="0.35"/>
-    <row r="148" x14ac:dyDescent="0.35"/>
-    <row r="149" x14ac:dyDescent="0.35"/>
-    <row r="150" x14ac:dyDescent="0.35"/>
-    <row r="151" x14ac:dyDescent="0.35"/>
-    <row r="152" x14ac:dyDescent="0.35"/>
-    <row r="153" x14ac:dyDescent="0.35"/>
-    <row r="154" x14ac:dyDescent="0.35"/>
-    <row r="155" x14ac:dyDescent="0.35"/>
-    <row r="156" x14ac:dyDescent="0.35"/>
-    <row r="157" x14ac:dyDescent="0.35"/>
-    <row r="158" x14ac:dyDescent="0.35"/>
-    <row r="159" x14ac:dyDescent="0.35"/>
-    <row r="160" x14ac:dyDescent="0.35"/>
-    <row r="161" x14ac:dyDescent="0.35"/>
-    <row r="162" x14ac:dyDescent="0.35"/>
-    <row r="163" x14ac:dyDescent="0.35"/>
-    <row r="164" x14ac:dyDescent="0.35"/>
-    <row r="165" x14ac:dyDescent="0.35"/>
-    <row r="166" x14ac:dyDescent="0.35"/>
-    <row r="167" x14ac:dyDescent="0.35"/>
-    <row r="168" x14ac:dyDescent="0.35"/>
-    <row r="169" x14ac:dyDescent="0.35"/>
-    <row r="170" x14ac:dyDescent="0.35"/>
-    <row r="171" x14ac:dyDescent="0.35"/>
-    <row r="172" x14ac:dyDescent="0.35"/>
-    <row r="173" x14ac:dyDescent="0.35"/>
-    <row r="174" x14ac:dyDescent="0.35"/>
-    <row r="175" x14ac:dyDescent="0.35"/>
-    <row r="176" x14ac:dyDescent="0.35"/>
-    <row r="177" x14ac:dyDescent="0.35"/>
-    <row r="178" x14ac:dyDescent="0.35"/>
-    <row r="179" x14ac:dyDescent="0.35"/>
-    <row r="180" x14ac:dyDescent="0.35"/>
-    <row r="181" x14ac:dyDescent="0.35"/>
-    <row r="182" x14ac:dyDescent="0.35"/>
-    <row r="183" x14ac:dyDescent="0.35"/>
-    <row r="184" x14ac:dyDescent="0.35"/>
-    <row r="185" x14ac:dyDescent="0.35"/>
-    <row r="186" x14ac:dyDescent="0.35"/>
-    <row r="187" x14ac:dyDescent="0.35"/>
-    <row r="188" x14ac:dyDescent="0.35"/>
-    <row r="189" x14ac:dyDescent="0.35"/>
-    <row r="190" x14ac:dyDescent="0.35"/>
-    <row r="191" x14ac:dyDescent="0.35"/>
-    <row r="192" x14ac:dyDescent="0.35"/>
-    <row r="193" x14ac:dyDescent="0.35"/>
-    <row r="194" x14ac:dyDescent="0.35"/>
-    <row r="195" x14ac:dyDescent="0.35"/>
-    <row r="196" x14ac:dyDescent="0.35"/>
-    <row r="197" x14ac:dyDescent="0.35"/>
-    <row r="198" x14ac:dyDescent="0.35"/>
-    <row r="199" x14ac:dyDescent="0.35"/>
-    <row r="200" x14ac:dyDescent="0.35"/>
-    <row r="201" x14ac:dyDescent="0.35"/>
-    <row r="202" x14ac:dyDescent="0.35"/>
-    <row r="203" x14ac:dyDescent="0.35"/>
-    <row r="204" x14ac:dyDescent="0.35"/>
-    <row r="205" x14ac:dyDescent="0.35"/>
-    <row r="206" x14ac:dyDescent="0.35"/>
-    <row r="207" x14ac:dyDescent="0.35"/>
-    <row r="208" x14ac:dyDescent="0.35"/>
-    <row r="209" x14ac:dyDescent="0.35"/>
-    <row r="210" x14ac:dyDescent="0.35"/>
-    <row r="211" x14ac:dyDescent="0.35"/>
-    <row r="212" x14ac:dyDescent="0.35"/>
-    <row r="213" x14ac:dyDescent="0.35"/>
-    <row r="214" x14ac:dyDescent="0.35"/>
-    <row r="215" x14ac:dyDescent="0.35"/>
-    <row r="216" x14ac:dyDescent="0.35"/>
-    <row r="217" x14ac:dyDescent="0.35"/>
-    <row r="218" x14ac:dyDescent="0.35"/>
-    <row r="219" x14ac:dyDescent="0.35"/>
-    <row r="220" x14ac:dyDescent="0.35"/>
-    <row r="221" x14ac:dyDescent="0.35"/>
-    <row r="222" x14ac:dyDescent="0.35"/>
-    <row r="223" x14ac:dyDescent="0.35"/>
-    <row r="224" x14ac:dyDescent="0.35"/>
-    <row r="225" x14ac:dyDescent="0.35"/>
-    <row r="226" x14ac:dyDescent="0.35"/>
-    <row r="227" x14ac:dyDescent="0.35"/>
-    <row r="228" x14ac:dyDescent="0.35"/>
-    <row r="229" x14ac:dyDescent="0.35"/>
-    <row r="230" x14ac:dyDescent="0.35"/>
-    <row r="231" x14ac:dyDescent="0.35"/>
-    <row r="232" x14ac:dyDescent="0.35"/>
-    <row r="233" x14ac:dyDescent="0.35"/>
-    <row r="234" x14ac:dyDescent="0.35"/>
-    <row r="235" x14ac:dyDescent="0.35"/>
-    <row r="236" x14ac:dyDescent="0.35"/>
-    <row r="237" x14ac:dyDescent="0.35"/>
-    <row r="238" x14ac:dyDescent="0.35"/>
-    <row r="239" x14ac:dyDescent="0.35"/>
-    <row r="240" x14ac:dyDescent="0.35"/>
-    <row r="241" x14ac:dyDescent="0.35"/>
-    <row r="242" x14ac:dyDescent="0.35"/>
-    <row r="243" x14ac:dyDescent="0.35"/>
-    <row r="244" x14ac:dyDescent="0.35"/>
-    <row r="245" x14ac:dyDescent="0.35"/>
-    <row r="246" x14ac:dyDescent="0.35"/>
-    <row r="247" x14ac:dyDescent="0.35"/>
-    <row r="248" x14ac:dyDescent="0.35"/>
-    <row r="249" x14ac:dyDescent="0.35"/>
-    <row r="250" x14ac:dyDescent="0.35"/>
-    <row r="251" x14ac:dyDescent="0.35"/>
-    <row r="252" x14ac:dyDescent="0.35"/>
-    <row r="253" x14ac:dyDescent="0.35"/>
-    <row r="254" x14ac:dyDescent="0.35"/>
-    <row r="255" x14ac:dyDescent="0.35"/>
-    <row r="256" x14ac:dyDescent="0.35"/>
-    <row r="257" x14ac:dyDescent="0.35"/>
-    <row r="258" x14ac:dyDescent="0.35"/>
-    <row r="259" x14ac:dyDescent="0.35"/>
-    <row r="260" x14ac:dyDescent="0.35"/>
-    <row r="261" x14ac:dyDescent="0.35"/>
-    <row r="262" x14ac:dyDescent="0.35"/>
-    <row r="263" x14ac:dyDescent="0.35"/>
-    <row r="264" x14ac:dyDescent="0.35"/>
-    <row r="265" x14ac:dyDescent="0.35"/>
-    <row r="266" x14ac:dyDescent="0.35"/>
-    <row r="267" x14ac:dyDescent="0.35"/>
-    <row r="268" x14ac:dyDescent="0.35"/>
-    <row r="269" x14ac:dyDescent="0.35"/>
-    <row r="270" x14ac:dyDescent="0.35"/>
-    <row r="271" x14ac:dyDescent="0.35"/>
-    <row r="272" x14ac:dyDescent="0.35"/>
-    <row r="273" x14ac:dyDescent="0.35"/>
-    <row r="274" x14ac:dyDescent="0.35"/>
-    <row r="275" x14ac:dyDescent="0.35"/>
-    <row r="276" x14ac:dyDescent="0.35"/>
-    <row r="277" x14ac:dyDescent="0.35"/>
-    <row r="278" x14ac:dyDescent="0.35"/>
-    <row r="279" x14ac:dyDescent="0.35"/>
-    <row r="280" x14ac:dyDescent="0.35"/>
-    <row r="281" x14ac:dyDescent="0.35"/>
-    <row r="282" x14ac:dyDescent="0.35"/>
-    <row r="283" x14ac:dyDescent="0.35"/>
-    <row r="284" x14ac:dyDescent="0.35"/>
-    <row r="285" x14ac:dyDescent="0.35"/>
-    <row r="286" x14ac:dyDescent="0.35"/>
-    <row r="287" x14ac:dyDescent="0.35"/>
-    <row r="288" x14ac:dyDescent="0.35"/>
-    <row r="289" x14ac:dyDescent="0.35"/>
-    <row r="290" x14ac:dyDescent="0.35"/>
-    <row r="291" x14ac:dyDescent="0.35"/>
-    <row r="292" x14ac:dyDescent="0.35"/>
-    <row r="293" x14ac:dyDescent="0.35"/>
-    <row r="294" x14ac:dyDescent="0.35"/>
-    <row r="295" x14ac:dyDescent="0.35"/>
-    <row r="296" x14ac:dyDescent="0.35"/>
-    <row r="297" x14ac:dyDescent="0.35"/>
-    <row r="298" x14ac:dyDescent="0.35"/>
-    <row r="299" x14ac:dyDescent="0.35"/>
-    <row r="300" x14ac:dyDescent="0.35"/>
-    <row r="301" x14ac:dyDescent="0.35"/>
-    <row r="302" x14ac:dyDescent="0.35"/>
-    <row r="303" x14ac:dyDescent="0.35"/>
-    <row r="304" x14ac:dyDescent="0.35"/>
-    <row r="305" x14ac:dyDescent="0.35"/>
-    <row r="306" x14ac:dyDescent="0.35"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="147" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="156" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="149"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="157"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="157"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="157"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="157"/>
+    </row>
+    <row r="35" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="157"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="157"/>
+      <c r="M35" s="157"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="157"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="157"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="157"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+    </row>
+    <row r="39" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="148"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
+    </row>
+    <row r="40" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="156" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="156"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
+    </row>
+    <row r="42" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="156"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
+    </row>
+    <row r="43" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="156"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+    </row>
+    <row r="44" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="156"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="156"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="156"/>
+    </row>
+    <row r="45" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="156"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="156"/>
+      <c r="L45" s="156"/>
+      <c r="M45" s="156"/>
+    </row>
+    <row r="46" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="156"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="156"/>
+      <c r="K46" s="156"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
+    </row>
+    <row r="47" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="156"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="156"/>
+      <c r="J47" s="156"/>
+      <c r="K47" s="156"/>
+      <c r="L47" s="156"/>
+      <c r="M47" s="156"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" x14ac:dyDescent="0.25"/>
+    <row r="152" x14ac:dyDescent="0.25"/>
+    <row r="153" x14ac:dyDescent="0.25"/>
+    <row r="154" x14ac:dyDescent="0.25"/>
+    <row r="155" x14ac:dyDescent="0.25"/>
+    <row r="156" x14ac:dyDescent="0.25"/>
+    <row r="157" x14ac:dyDescent="0.25"/>
+    <row r="158" x14ac:dyDescent="0.25"/>
+    <row r="159" x14ac:dyDescent="0.25"/>
+    <row r="160" x14ac:dyDescent="0.25"/>
+    <row r="161" x14ac:dyDescent="0.25"/>
+    <row r="162" x14ac:dyDescent="0.25"/>
+    <row r="163" x14ac:dyDescent="0.25"/>
+    <row r="164" x14ac:dyDescent="0.25"/>
+    <row r="165" x14ac:dyDescent="0.25"/>
+    <row r="166" x14ac:dyDescent="0.25"/>
+    <row r="167" x14ac:dyDescent="0.25"/>
+    <row r="168" x14ac:dyDescent="0.25"/>
+    <row r="169" x14ac:dyDescent="0.25"/>
+    <row r="170" x14ac:dyDescent="0.25"/>
+    <row r="171" x14ac:dyDescent="0.25"/>
+    <row r="172" x14ac:dyDescent="0.25"/>
+    <row r="173" x14ac:dyDescent="0.25"/>
+    <row r="174" x14ac:dyDescent="0.25"/>
+    <row r="175" x14ac:dyDescent="0.25"/>
+    <row r="176" x14ac:dyDescent="0.25"/>
+    <row r="177" x14ac:dyDescent="0.25"/>
+    <row r="178" x14ac:dyDescent="0.25"/>
+    <row r="179" x14ac:dyDescent="0.25"/>
+    <row r="180" x14ac:dyDescent="0.25"/>
+    <row r="181" x14ac:dyDescent="0.25"/>
+    <row r="182" x14ac:dyDescent="0.25"/>
+    <row r="183" x14ac:dyDescent="0.25"/>
+    <row r="184" x14ac:dyDescent="0.25"/>
+    <row r="185" x14ac:dyDescent="0.25"/>
+    <row r="186" x14ac:dyDescent="0.25"/>
+    <row r="187" x14ac:dyDescent="0.25"/>
+    <row r="188" x14ac:dyDescent="0.25"/>
+    <row r="189" x14ac:dyDescent="0.25"/>
+    <row r="190" x14ac:dyDescent="0.25"/>
+    <row r="191" x14ac:dyDescent="0.25"/>
+    <row r="192" x14ac:dyDescent="0.25"/>
+    <row r="193" x14ac:dyDescent="0.25"/>
+    <row r="194" x14ac:dyDescent="0.25"/>
+    <row r="195" x14ac:dyDescent="0.25"/>
+    <row r="196" x14ac:dyDescent="0.25"/>
+    <row r="197" x14ac:dyDescent="0.25"/>
+    <row r="198" x14ac:dyDescent="0.25"/>
+    <row r="199" x14ac:dyDescent="0.25"/>
+    <row r="200" x14ac:dyDescent="0.25"/>
+    <row r="201" x14ac:dyDescent="0.25"/>
+    <row r="202" x14ac:dyDescent="0.25"/>
+    <row r="203" x14ac:dyDescent="0.25"/>
+    <row r="204" x14ac:dyDescent="0.25"/>
+    <row r="205" x14ac:dyDescent="0.25"/>
+    <row r="206" x14ac:dyDescent="0.25"/>
+    <row r="207" x14ac:dyDescent="0.25"/>
+    <row r="208" x14ac:dyDescent="0.25"/>
+    <row r="209" x14ac:dyDescent="0.25"/>
+    <row r="210" x14ac:dyDescent="0.25"/>
+    <row r="211" x14ac:dyDescent="0.25"/>
+    <row r="212" x14ac:dyDescent="0.25"/>
+    <row r="213" x14ac:dyDescent="0.25"/>
+    <row r="214" x14ac:dyDescent="0.25"/>
+    <row r="215" x14ac:dyDescent="0.25"/>
+    <row r="216" x14ac:dyDescent="0.25"/>
+    <row r="217" x14ac:dyDescent="0.25"/>
+    <row r="218" x14ac:dyDescent="0.25"/>
+    <row r="219" x14ac:dyDescent="0.25"/>
+    <row r="220" x14ac:dyDescent="0.25"/>
+    <row r="221" x14ac:dyDescent="0.25"/>
+    <row r="222" x14ac:dyDescent="0.25"/>
+    <row r="223" x14ac:dyDescent="0.25"/>
+    <row r="224" x14ac:dyDescent="0.25"/>
+    <row r="225" x14ac:dyDescent="0.25"/>
+    <row r="226" x14ac:dyDescent="0.25"/>
+    <row r="227" x14ac:dyDescent="0.25"/>
+    <row r="228" x14ac:dyDescent="0.25"/>
+    <row r="229" x14ac:dyDescent="0.25"/>
+    <row r="230" x14ac:dyDescent="0.25"/>
+    <row r="231" x14ac:dyDescent="0.25"/>
+    <row r="232" x14ac:dyDescent="0.25"/>
+    <row r="233" x14ac:dyDescent="0.25"/>
+    <row r="234" x14ac:dyDescent="0.25"/>
+    <row r="235" x14ac:dyDescent="0.25"/>
+    <row r="236" x14ac:dyDescent="0.25"/>
+    <row r="237" x14ac:dyDescent="0.25"/>
+    <row r="238" x14ac:dyDescent="0.25"/>
+    <row r="239" x14ac:dyDescent="0.25"/>
+    <row r="240" x14ac:dyDescent="0.25"/>
+    <row r="241" x14ac:dyDescent="0.25"/>
+    <row r="242" x14ac:dyDescent="0.25"/>
+    <row r="243" x14ac:dyDescent="0.25"/>
+    <row r="244" x14ac:dyDescent="0.25"/>
+    <row r="245" x14ac:dyDescent="0.25"/>
+    <row r="246" x14ac:dyDescent="0.25"/>
+    <row r="247" x14ac:dyDescent="0.25"/>
+    <row r="248" x14ac:dyDescent="0.25"/>
+    <row r="249" x14ac:dyDescent="0.25"/>
+    <row r="250" x14ac:dyDescent="0.25"/>
+    <row r="251" x14ac:dyDescent="0.25"/>
+    <row r="252" x14ac:dyDescent="0.25"/>
+    <row r="253" x14ac:dyDescent="0.25"/>
+    <row r="254" x14ac:dyDescent="0.25"/>
+    <row r="255" x14ac:dyDescent="0.25"/>
+    <row r="256" x14ac:dyDescent="0.25"/>
+    <row r="257" x14ac:dyDescent="0.25"/>
+    <row r="258" x14ac:dyDescent="0.25"/>
+    <row r="259" x14ac:dyDescent="0.25"/>
+    <row r="260" x14ac:dyDescent="0.25"/>
+    <row r="261" x14ac:dyDescent="0.25"/>
+    <row r="262" x14ac:dyDescent="0.25"/>
+    <row r="263" x14ac:dyDescent="0.25"/>
+    <row r="264" x14ac:dyDescent="0.25"/>
+    <row r="265" x14ac:dyDescent="0.25"/>
+    <row r="266" x14ac:dyDescent="0.25"/>
+    <row r="267" x14ac:dyDescent="0.25"/>
+    <row r="268" x14ac:dyDescent="0.25"/>
+    <row r="269" x14ac:dyDescent="0.25"/>
+    <row r="270" x14ac:dyDescent="0.25"/>
+    <row r="271" x14ac:dyDescent="0.25"/>
+    <row r="272" x14ac:dyDescent="0.25"/>
+    <row r="273" x14ac:dyDescent="0.25"/>
+    <row r="274" x14ac:dyDescent="0.25"/>
+    <row r="275" x14ac:dyDescent="0.25"/>
+    <row r="276" x14ac:dyDescent="0.25"/>
+    <row r="277" x14ac:dyDescent="0.25"/>
+    <row r="278" x14ac:dyDescent="0.25"/>
+    <row r="279" x14ac:dyDescent="0.25"/>
+    <row r="280" x14ac:dyDescent="0.25"/>
+    <row r="281" x14ac:dyDescent="0.25"/>
+    <row r="282" x14ac:dyDescent="0.25"/>
+    <row r="283" x14ac:dyDescent="0.25"/>
+    <row r="284" x14ac:dyDescent="0.25"/>
+    <row r="285" x14ac:dyDescent="0.25"/>
+    <row r="286" x14ac:dyDescent="0.25"/>
+    <row r="287" x14ac:dyDescent="0.25"/>
+    <row r="288" x14ac:dyDescent="0.25"/>
+    <row r="289" x14ac:dyDescent="0.25"/>
+    <row r="290" x14ac:dyDescent="0.25"/>
+    <row r="291" x14ac:dyDescent="0.25"/>
+    <row r="292" x14ac:dyDescent="0.25"/>
+    <row r="293" x14ac:dyDescent="0.25"/>
+    <row r="294" x14ac:dyDescent="0.25"/>
+    <row r="295" x14ac:dyDescent="0.25"/>
+    <row r="296" x14ac:dyDescent="0.25"/>
+    <row r="297" x14ac:dyDescent="0.25"/>
+    <row r="298" x14ac:dyDescent="0.25"/>
+    <row r="299" x14ac:dyDescent="0.25"/>
+    <row r="300" x14ac:dyDescent="0.25"/>
+    <row r="301" x14ac:dyDescent="0.25"/>
+    <row r="302" x14ac:dyDescent="0.25"/>
+    <row r="303" x14ac:dyDescent="0.25"/>
+    <row r="304" x14ac:dyDescent="0.25"/>
+    <row r="305" x14ac:dyDescent="0.25"/>
+    <row r="306" x14ac:dyDescent="0.25"/>
+    <row r="307" x14ac:dyDescent="0.25"/>
+    <row r="308" x14ac:dyDescent="0.25"/>
+    <row r="309" x14ac:dyDescent="0.25"/>
+    <row r="310" x14ac:dyDescent="0.25"/>
+    <row r="311" x14ac:dyDescent="0.25"/>
+    <row r="312" x14ac:dyDescent="0.25"/>
+    <row r="313" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A32:M38"/>
+    <mergeCell ref="A41:M47"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
@@ -4962,25 +5542,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2F3575-0DDF-455C-8474-4737C3749E61}">
   <dimension ref="A1:P322"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="3.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="4" customWidth="1"/>
-    <col min="8" max="13" width="11.453125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" style="4" customWidth="1"/>
-    <col min="15" max="58" width="11.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="4" customWidth="1"/>
+    <col min="8" max="13" width="11.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="4" customWidth="1"/>
+    <col min="15" max="58" width="11.42578125" style="4" customWidth="1"/>
     <col min="59" max="16384" width="0" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>87</v>
       </c>
       <c r="B1" s="2"/>
@@ -4997,7 +5579,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5013,7 +5595,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5029,7 +5611,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>91</v>
@@ -5047,7 +5629,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
@@ -5063,7 +5645,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
@@ -5082,7 +5664,7 @@
       <c r="N6" s="3"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
@@ -5100,7 +5682,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
@@ -5116,15 +5698,15 @@
       <c r="M8" s="7"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="63">
+      <c r="D9" s="64"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="57">
         <v>500000</v>
       </c>
       <c r="G9" s="12"/>
@@ -5136,15 +5718,15 @@
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="63">
+      <c r="D10" s="64"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="57">
         <v>100000</v>
       </c>
       <c r="G10" s="12"/>
@@ -5156,15 +5738,15 @@
       <c r="M10" s="2"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="63">
+      <c r="D11" s="64"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="57">
         <v>80000</v>
       </c>
       <c r="G11" s="12"/>
@@ -5176,15 +5758,15 @@
       <c r="M11" s="2"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="63">
+      <c r="D12" s="64"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="57">
         <v>125000</v>
       </c>
       <c r="G12" s="12"/>
@@ -5196,15 +5778,15 @@
       <c r="M12" s="2"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="63">
+      <c r="D13" s="64"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="57">
         <v>25000</v>
       </c>
       <c r="G13" s="12"/>
@@ -5216,15 +5798,15 @@
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="63">
+      <c r="D14" s="64"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="57">
         <v>120000</v>
       </c>
       <c r="G14" s="12"/>
@@ -5236,15 +5818,15 @@
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="63">
+      <c r="D15" s="64"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="57">
         <v>25000</v>
       </c>
       <c r="G15" s="12"/>
@@ -5256,13 +5838,13 @@
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="2"/>
@@ -5272,7 +5854,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="9" t="s">
@@ -5290,7 +5872,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
       <c r="C18" s="10"/>
@@ -5306,15 +5888,15 @@
       <c r="M18" s="2"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="154"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="56" t="s">
+      <c r="D19" s="160"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="50" t="s">
         <v>80</v>
       </c>
       <c r="G19" s="10"/>
@@ -5326,19 +5908,19 @@
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="73">
+      <c r="C20" s="67">
         <v>75000</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="66">
         <v>25000</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="68">
         <v>0.9</v>
       </c>
       <c r="G20" s="10"/>
@@ -5350,19 +5932,19 @@
       <c r="M20" s="2"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="73">
+      <c r="C21" s="67">
         <v>100000</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="66">
         <v>100000</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="68">
         <v>1</v>
       </c>
       <c r="G21" s="10"/>
@@ -5374,19 +5956,19 @@
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="73">
+      <c r="C22" s="67">
         <v>125000</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="66">
         <v>200000</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="68">
         <v>0.5</v>
       </c>
       <c r="G22" s="10"/>
@@ -5398,19 +5980,19 @@
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="73">
+      <c r="C23" s="67">
         <v>50000</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="66">
         <v>325000</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="68">
         <v>0.3</v>
       </c>
       <c r="G23" s="10"/>
@@ -5422,7 +6004,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
@@ -5438,7 +6020,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
       <c r="C25" s="7" t="s">
@@ -5456,13 +6038,13 @@
       <c r="M25" s="2"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="64"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="12"/>
@@ -5474,11 +6056,11 @@
       <c r="M26" s="2"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="12"/>
@@ -5490,13 +6072,13 @@
       <c r="M27" s="2"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="12"/>
@@ -5508,13 +6090,13 @@
       <c r="M28" s="2"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="65"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="12"/>
@@ -5526,11 +6108,11 @@
       <c r="M29" s="2"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="12"/>
@@ -5542,13 +6124,13 @@
       <c r="M30" s="2"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="65"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="12"/>
@@ -5560,13 +6142,13 @@
       <c r="M31" s="2"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="65"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="12"/>
@@ -5578,7 +6160,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5594,7 +6176,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -5610,7 +6192,7 @@
       <c r="M34" s="20"/>
       <c r="N34" s="21"/>
     </row>
-    <row r="35" spans="1:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>0</v>
       </c>
@@ -5629,7 +6211,7 @@
       <c r="N35" s="26"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="28"/>
@@ -5645,292 +6227,292 @@
       <c r="M36" s="29"/>
       <c r="N36" s="30"/>
     </row>
-    <row r="37" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" x14ac:dyDescent="0.35"/>
-    <row r="156" x14ac:dyDescent="0.35"/>
-    <row r="157" x14ac:dyDescent="0.35"/>
-    <row r="158" x14ac:dyDescent="0.35"/>
-    <row r="159" x14ac:dyDescent="0.35"/>
-    <row r="160" x14ac:dyDescent="0.35"/>
-    <row r="161" x14ac:dyDescent="0.35"/>
-    <row r="162" x14ac:dyDescent="0.35"/>
-    <row r="163" x14ac:dyDescent="0.35"/>
-    <row r="164" x14ac:dyDescent="0.35"/>
-    <row r="165" x14ac:dyDescent="0.35"/>
-    <row r="166" x14ac:dyDescent="0.35"/>
-    <row r="167" x14ac:dyDescent="0.35"/>
-    <row r="168" x14ac:dyDescent="0.35"/>
-    <row r="169" x14ac:dyDescent="0.35"/>
-    <row r="170" x14ac:dyDescent="0.35"/>
-    <row r="171" x14ac:dyDescent="0.35"/>
-    <row r="172" x14ac:dyDescent="0.35"/>
-    <row r="173" x14ac:dyDescent="0.35"/>
-    <row r="174" x14ac:dyDescent="0.35"/>
-    <row r="175" x14ac:dyDescent="0.35"/>
-    <row r="176" x14ac:dyDescent="0.35"/>
-    <row r="177" x14ac:dyDescent="0.35"/>
-    <row r="178" x14ac:dyDescent="0.35"/>
-    <row r="179" x14ac:dyDescent="0.35"/>
-    <row r="180" x14ac:dyDescent="0.35"/>
-    <row r="181" x14ac:dyDescent="0.35"/>
-    <row r="182" x14ac:dyDescent="0.35"/>
-    <row r="183" x14ac:dyDescent="0.35"/>
-    <row r="184" x14ac:dyDescent="0.35"/>
-    <row r="185" x14ac:dyDescent="0.35"/>
-    <row r="186" x14ac:dyDescent="0.35"/>
-    <row r="187" x14ac:dyDescent="0.35"/>
-    <row r="188" x14ac:dyDescent="0.35"/>
-    <row r="189" x14ac:dyDescent="0.35"/>
-    <row r="190" x14ac:dyDescent="0.35"/>
-    <row r="191" x14ac:dyDescent="0.35"/>
-    <row r="192" x14ac:dyDescent="0.35"/>
-    <row r="193" x14ac:dyDescent="0.35"/>
-    <row r="194" x14ac:dyDescent="0.35"/>
-    <row r="195" x14ac:dyDescent="0.35"/>
-    <row r="196" x14ac:dyDescent="0.35"/>
-    <row r="197" x14ac:dyDescent="0.35"/>
-    <row r="198" x14ac:dyDescent="0.35"/>
-    <row r="199" x14ac:dyDescent="0.35"/>
-    <row r="200" x14ac:dyDescent="0.35"/>
-    <row r="201" x14ac:dyDescent="0.35"/>
-    <row r="202" x14ac:dyDescent="0.35"/>
-    <row r="203" x14ac:dyDescent="0.35"/>
-    <row r="204" x14ac:dyDescent="0.35"/>
-    <row r="205" x14ac:dyDescent="0.35"/>
-    <row r="206" x14ac:dyDescent="0.35"/>
-    <row r="207" x14ac:dyDescent="0.35"/>
-    <row r="208" x14ac:dyDescent="0.35"/>
-    <row r="209" x14ac:dyDescent="0.35"/>
-    <row r="210" x14ac:dyDescent="0.35"/>
-    <row r="211" x14ac:dyDescent="0.35"/>
-    <row r="212" x14ac:dyDescent="0.35"/>
-    <row r="213" x14ac:dyDescent="0.35"/>
-    <row r="214" x14ac:dyDescent="0.35"/>
-    <row r="215" x14ac:dyDescent="0.35"/>
-    <row r="216" x14ac:dyDescent="0.35"/>
-    <row r="217" x14ac:dyDescent="0.35"/>
-    <row r="218" x14ac:dyDescent="0.35"/>
-    <row r="219" x14ac:dyDescent="0.35"/>
-    <row r="220" x14ac:dyDescent="0.35"/>
-    <row r="221" x14ac:dyDescent="0.35"/>
-    <row r="222" x14ac:dyDescent="0.35"/>
-    <row r="223" x14ac:dyDescent="0.35"/>
-    <row r="224" x14ac:dyDescent="0.35"/>
-    <row r="225" x14ac:dyDescent="0.35"/>
-    <row r="226" x14ac:dyDescent="0.35"/>
-    <row r="227" x14ac:dyDescent="0.35"/>
-    <row r="228" x14ac:dyDescent="0.35"/>
-    <row r="229" x14ac:dyDescent="0.35"/>
-    <row r="230" x14ac:dyDescent="0.35"/>
-    <row r="231" x14ac:dyDescent="0.35"/>
-    <row r="232" x14ac:dyDescent="0.35"/>
-    <row r="233" x14ac:dyDescent="0.35"/>
-    <row r="234" x14ac:dyDescent="0.35"/>
-    <row r="235" x14ac:dyDescent="0.35"/>
-    <row r="236" x14ac:dyDescent="0.35"/>
-    <row r="237" x14ac:dyDescent="0.35"/>
-    <row r="238" x14ac:dyDescent="0.35"/>
-    <row r="239" x14ac:dyDescent="0.35"/>
-    <row r="240" x14ac:dyDescent="0.35"/>
-    <row r="241" x14ac:dyDescent="0.35"/>
-    <row r="242" x14ac:dyDescent="0.35"/>
-    <row r="243" x14ac:dyDescent="0.35"/>
-    <row r="244" x14ac:dyDescent="0.35"/>
-    <row r="245" x14ac:dyDescent="0.35"/>
-    <row r="246" x14ac:dyDescent="0.35"/>
-    <row r="247" x14ac:dyDescent="0.35"/>
-    <row r="248" x14ac:dyDescent="0.35"/>
-    <row r="249" x14ac:dyDescent="0.35"/>
-    <row r="250" x14ac:dyDescent="0.35"/>
-    <row r="251" x14ac:dyDescent="0.35"/>
-    <row r="252" x14ac:dyDescent="0.35"/>
-    <row r="253" x14ac:dyDescent="0.35"/>
-    <row r="254" x14ac:dyDescent="0.35"/>
-    <row r="255" x14ac:dyDescent="0.35"/>
-    <row r="256" x14ac:dyDescent="0.35"/>
-    <row r="257" x14ac:dyDescent="0.35"/>
-    <row r="258" x14ac:dyDescent="0.35"/>
-    <row r="259" x14ac:dyDescent="0.35"/>
-    <row r="260" x14ac:dyDescent="0.35"/>
-    <row r="261" x14ac:dyDescent="0.35"/>
-    <row r="262" x14ac:dyDescent="0.35"/>
-    <row r="263" x14ac:dyDescent="0.35"/>
-    <row r="264" x14ac:dyDescent="0.35"/>
-    <row r="265" x14ac:dyDescent="0.35"/>
-    <row r="266" x14ac:dyDescent="0.35"/>
-    <row r="267" x14ac:dyDescent="0.35"/>
-    <row r="268" x14ac:dyDescent="0.35"/>
-    <row r="269" x14ac:dyDescent="0.35"/>
-    <row r="270" x14ac:dyDescent="0.35"/>
-    <row r="271" x14ac:dyDescent="0.35"/>
-    <row r="272" x14ac:dyDescent="0.35"/>
-    <row r="273" x14ac:dyDescent="0.35"/>
-    <row r="274" x14ac:dyDescent="0.35"/>
-    <row r="275" x14ac:dyDescent="0.35"/>
-    <row r="276" x14ac:dyDescent="0.35"/>
-    <row r="277" x14ac:dyDescent="0.35"/>
-    <row r="278" x14ac:dyDescent="0.35"/>
-    <row r="279" x14ac:dyDescent="0.35"/>
-    <row r="280" x14ac:dyDescent="0.35"/>
-    <row r="281" x14ac:dyDescent="0.35"/>
-    <row r="282" x14ac:dyDescent="0.35"/>
-    <row r="283" x14ac:dyDescent="0.35"/>
-    <row r="284" x14ac:dyDescent="0.35"/>
-    <row r="285" x14ac:dyDescent="0.35"/>
-    <row r="286" x14ac:dyDescent="0.35"/>
-    <row r="287" x14ac:dyDescent="0.35"/>
-    <row r="288" x14ac:dyDescent="0.35"/>
-    <row r="289" x14ac:dyDescent="0.35"/>
-    <row r="290" x14ac:dyDescent="0.35"/>
-    <row r="291" x14ac:dyDescent="0.35"/>
-    <row r="292" x14ac:dyDescent="0.35"/>
-    <row r="293" x14ac:dyDescent="0.35"/>
-    <row r="294" x14ac:dyDescent="0.35"/>
-    <row r="295" x14ac:dyDescent="0.35"/>
-    <row r="296" x14ac:dyDescent="0.35"/>
-    <row r="297" x14ac:dyDescent="0.35"/>
-    <row r="298" x14ac:dyDescent="0.35"/>
-    <row r="299" x14ac:dyDescent="0.35"/>
-    <row r="300" x14ac:dyDescent="0.35"/>
-    <row r="301" x14ac:dyDescent="0.35"/>
-    <row r="302" x14ac:dyDescent="0.35"/>
-    <row r="303" x14ac:dyDescent="0.35"/>
-    <row r="304" x14ac:dyDescent="0.35"/>
-    <row r="305" x14ac:dyDescent="0.35"/>
-    <row r="306" x14ac:dyDescent="0.35"/>
-    <row r="307" x14ac:dyDescent="0.35"/>
-    <row r="308" x14ac:dyDescent="0.35"/>
-    <row r="309" x14ac:dyDescent="0.35"/>
-    <row r="310" x14ac:dyDescent="0.35"/>
-    <row r="311" x14ac:dyDescent="0.35"/>
-    <row r="312" x14ac:dyDescent="0.35"/>
-    <row r="313" x14ac:dyDescent="0.35"/>
-    <row r="314" x14ac:dyDescent="0.35"/>
-    <row r="315" x14ac:dyDescent="0.35"/>
-    <row r="316" x14ac:dyDescent="0.35"/>
-    <row r="317" x14ac:dyDescent="0.35"/>
-    <row r="318" x14ac:dyDescent="0.35"/>
-    <row r="319" x14ac:dyDescent="0.35"/>
-    <row r="320" x14ac:dyDescent="0.35"/>
-    <row r="321" x14ac:dyDescent="0.35"/>
-    <row r="322" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" x14ac:dyDescent="0.25"/>
+    <row r="156" x14ac:dyDescent="0.25"/>
+    <row r="157" x14ac:dyDescent="0.25"/>
+    <row r="158" x14ac:dyDescent="0.25"/>
+    <row r="159" x14ac:dyDescent="0.25"/>
+    <row r="160" x14ac:dyDescent="0.25"/>
+    <row r="161" x14ac:dyDescent="0.25"/>
+    <row r="162" x14ac:dyDescent="0.25"/>
+    <row r="163" x14ac:dyDescent="0.25"/>
+    <row r="164" x14ac:dyDescent="0.25"/>
+    <row r="165" x14ac:dyDescent="0.25"/>
+    <row r="166" x14ac:dyDescent="0.25"/>
+    <row r="167" x14ac:dyDescent="0.25"/>
+    <row r="168" x14ac:dyDescent="0.25"/>
+    <row r="169" x14ac:dyDescent="0.25"/>
+    <row r="170" x14ac:dyDescent="0.25"/>
+    <row r="171" x14ac:dyDescent="0.25"/>
+    <row r="172" x14ac:dyDescent="0.25"/>
+    <row r="173" x14ac:dyDescent="0.25"/>
+    <row r="174" x14ac:dyDescent="0.25"/>
+    <row r="175" x14ac:dyDescent="0.25"/>
+    <row r="176" x14ac:dyDescent="0.25"/>
+    <row r="177" x14ac:dyDescent="0.25"/>
+    <row r="178" x14ac:dyDescent="0.25"/>
+    <row r="179" x14ac:dyDescent="0.25"/>
+    <row r="180" x14ac:dyDescent="0.25"/>
+    <row r="181" x14ac:dyDescent="0.25"/>
+    <row r="182" x14ac:dyDescent="0.25"/>
+    <row r="183" x14ac:dyDescent="0.25"/>
+    <row r="184" x14ac:dyDescent="0.25"/>
+    <row r="185" x14ac:dyDescent="0.25"/>
+    <row r="186" x14ac:dyDescent="0.25"/>
+    <row r="187" x14ac:dyDescent="0.25"/>
+    <row r="188" x14ac:dyDescent="0.25"/>
+    <row r="189" x14ac:dyDescent="0.25"/>
+    <row r="190" x14ac:dyDescent="0.25"/>
+    <row r="191" x14ac:dyDescent="0.25"/>
+    <row r="192" x14ac:dyDescent="0.25"/>
+    <row r="193" x14ac:dyDescent="0.25"/>
+    <row r="194" x14ac:dyDescent="0.25"/>
+    <row r="195" x14ac:dyDescent="0.25"/>
+    <row r="196" x14ac:dyDescent="0.25"/>
+    <row r="197" x14ac:dyDescent="0.25"/>
+    <row r="198" x14ac:dyDescent="0.25"/>
+    <row r="199" x14ac:dyDescent="0.25"/>
+    <row r="200" x14ac:dyDescent="0.25"/>
+    <row r="201" x14ac:dyDescent="0.25"/>
+    <row r="202" x14ac:dyDescent="0.25"/>
+    <row r="203" x14ac:dyDescent="0.25"/>
+    <row r="204" x14ac:dyDescent="0.25"/>
+    <row r="205" x14ac:dyDescent="0.25"/>
+    <row r="206" x14ac:dyDescent="0.25"/>
+    <row r="207" x14ac:dyDescent="0.25"/>
+    <row r="208" x14ac:dyDescent="0.25"/>
+    <row r="209" x14ac:dyDescent="0.25"/>
+    <row r="210" x14ac:dyDescent="0.25"/>
+    <row r="211" x14ac:dyDescent="0.25"/>
+    <row r="212" x14ac:dyDescent="0.25"/>
+    <row r="213" x14ac:dyDescent="0.25"/>
+    <row r="214" x14ac:dyDescent="0.25"/>
+    <row r="215" x14ac:dyDescent="0.25"/>
+    <row r="216" x14ac:dyDescent="0.25"/>
+    <row r="217" x14ac:dyDescent="0.25"/>
+    <row r="218" x14ac:dyDescent="0.25"/>
+    <row r="219" x14ac:dyDescent="0.25"/>
+    <row r="220" x14ac:dyDescent="0.25"/>
+    <row r="221" x14ac:dyDescent="0.25"/>
+    <row r="222" x14ac:dyDescent="0.25"/>
+    <row r="223" x14ac:dyDescent="0.25"/>
+    <row r="224" x14ac:dyDescent="0.25"/>
+    <row r="225" x14ac:dyDescent="0.25"/>
+    <row r="226" x14ac:dyDescent="0.25"/>
+    <row r="227" x14ac:dyDescent="0.25"/>
+    <row r="228" x14ac:dyDescent="0.25"/>
+    <row r="229" x14ac:dyDescent="0.25"/>
+    <row r="230" x14ac:dyDescent="0.25"/>
+    <row r="231" x14ac:dyDescent="0.25"/>
+    <row r="232" x14ac:dyDescent="0.25"/>
+    <row r="233" x14ac:dyDescent="0.25"/>
+    <row r="234" x14ac:dyDescent="0.25"/>
+    <row r="235" x14ac:dyDescent="0.25"/>
+    <row r="236" x14ac:dyDescent="0.25"/>
+    <row r="237" x14ac:dyDescent="0.25"/>
+    <row r="238" x14ac:dyDescent="0.25"/>
+    <row r="239" x14ac:dyDescent="0.25"/>
+    <row r="240" x14ac:dyDescent="0.25"/>
+    <row r="241" x14ac:dyDescent="0.25"/>
+    <row r="242" x14ac:dyDescent="0.25"/>
+    <row r="243" x14ac:dyDescent="0.25"/>
+    <row r="244" x14ac:dyDescent="0.25"/>
+    <row r="245" x14ac:dyDescent="0.25"/>
+    <row r="246" x14ac:dyDescent="0.25"/>
+    <row r="247" x14ac:dyDescent="0.25"/>
+    <row r="248" x14ac:dyDescent="0.25"/>
+    <row r="249" x14ac:dyDescent="0.25"/>
+    <row r="250" x14ac:dyDescent="0.25"/>
+    <row r="251" x14ac:dyDescent="0.25"/>
+    <row r="252" x14ac:dyDescent="0.25"/>
+    <row r="253" x14ac:dyDescent="0.25"/>
+    <row r="254" x14ac:dyDescent="0.25"/>
+    <row r="255" x14ac:dyDescent="0.25"/>
+    <row r="256" x14ac:dyDescent="0.25"/>
+    <row r="257" x14ac:dyDescent="0.25"/>
+    <row r="258" x14ac:dyDescent="0.25"/>
+    <row r="259" x14ac:dyDescent="0.25"/>
+    <row r="260" x14ac:dyDescent="0.25"/>
+    <row r="261" x14ac:dyDescent="0.25"/>
+    <row r="262" x14ac:dyDescent="0.25"/>
+    <row r="263" x14ac:dyDescent="0.25"/>
+    <row r="264" x14ac:dyDescent="0.25"/>
+    <row r="265" x14ac:dyDescent="0.25"/>
+    <row r="266" x14ac:dyDescent="0.25"/>
+    <row r="267" x14ac:dyDescent="0.25"/>
+    <row r="268" x14ac:dyDescent="0.25"/>
+    <row r="269" x14ac:dyDescent="0.25"/>
+    <row r="270" x14ac:dyDescent="0.25"/>
+    <row r="271" x14ac:dyDescent="0.25"/>
+    <row r="272" x14ac:dyDescent="0.25"/>
+    <row r="273" x14ac:dyDescent="0.25"/>
+    <row r="274" x14ac:dyDescent="0.25"/>
+    <row r="275" x14ac:dyDescent="0.25"/>
+    <row r="276" x14ac:dyDescent="0.25"/>
+    <row r="277" x14ac:dyDescent="0.25"/>
+    <row r="278" x14ac:dyDescent="0.25"/>
+    <row r="279" x14ac:dyDescent="0.25"/>
+    <row r="280" x14ac:dyDescent="0.25"/>
+    <row r="281" x14ac:dyDescent="0.25"/>
+    <row r="282" x14ac:dyDescent="0.25"/>
+    <row r="283" x14ac:dyDescent="0.25"/>
+    <row r="284" x14ac:dyDescent="0.25"/>
+    <row r="285" x14ac:dyDescent="0.25"/>
+    <row r="286" x14ac:dyDescent="0.25"/>
+    <row r="287" x14ac:dyDescent="0.25"/>
+    <row r="288" x14ac:dyDescent="0.25"/>
+    <row r="289" x14ac:dyDescent="0.25"/>
+    <row r="290" x14ac:dyDescent="0.25"/>
+    <row r="291" x14ac:dyDescent="0.25"/>
+    <row r="292" x14ac:dyDescent="0.25"/>
+    <row r="293" x14ac:dyDescent="0.25"/>
+    <row r="294" x14ac:dyDescent="0.25"/>
+    <row r="295" x14ac:dyDescent="0.25"/>
+    <row r="296" x14ac:dyDescent="0.25"/>
+    <row r="297" x14ac:dyDescent="0.25"/>
+    <row r="298" x14ac:dyDescent="0.25"/>
+    <row r="299" x14ac:dyDescent="0.25"/>
+    <row r="300" x14ac:dyDescent="0.25"/>
+    <row r="301" x14ac:dyDescent="0.25"/>
+    <row r="302" x14ac:dyDescent="0.25"/>
+    <row r="303" x14ac:dyDescent="0.25"/>
+    <row r="304" x14ac:dyDescent="0.25"/>
+    <row r="305" x14ac:dyDescent="0.25"/>
+    <row r="306" x14ac:dyDescent="0.25"/>
+    <row r="307" x14ac:dyDescent="0.25"/>
+    <row r="308" x14ac:dyDescent="0.25"/>
+    <row r="309" x14ac:dyDescent="0.25"/>
+    <row r="310" x14ac:dyDescent="0.25"/>
+    <row r="311" x14ac:dyDescent="0.25"/>
+    <row r="312" x14ac:dyDescent="0.25"/>
+    <row r="313" x14ac:dyDescent="0.25"/>
+    <row r="314" x14ac:dyDescent="0.25"/>
+    <row r="315" x14ac:dyDescent="0.25"/>
+    <row r="316" x14ac:dyDescent="0.25"/>
+    <row r="317" x14ac:dyDescent="0.25"/>
+    <row r="318" x14ac:dyDescent="0.25"/>
+    <row r="319" x14ac:dyDescent="0.25"/>
+    <row r="320" x14ac:dyDescent="0.25"/>
+    <row r="321" x14ac:dyDescent="0.25"/>
+    <row r="322" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C19:E19"/>
@@ -5944,27 +6526,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B7C976-2AD1-468B-BC57-86BD0951E084}">
   <dimension ref="A1:Q373"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="18.26953125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="11.453125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="14.81640625" style="4" customWidth="1"/>
-    <col min="16" max="59" width="11.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="11.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="4" customWidth="1"/>
+    <col min="16" max="59" width="11.42578125" style="4" customWidth="1"/>
     <col min="60" max="16384" width="0" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="2"/>
@@ -5982,7 +6564,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5999,7 +6581,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6016,7 +6598,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>141</v>
@@ -6035,7 +6617,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
@@ -6052,7 +6634,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
@@ -6072,7 +6654,7 @@
       <c r="O6" s="3"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
@@ -6091,7 +6673,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
@@ -6108,16 +6690,16 @@
       <c r="N8" s="7"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -6127,16 +6709,16 @@
       <c r="N9" s="7"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="85"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="2"/>
@@ -6146,16 +6728,16 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="70" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="87" t="s">
+      <c r="E11" s="64"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="81" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="12"/>
@@ -6167,16 +6749,16 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="70" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="87">
+      <c r="E12" s="64"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="81">
         <v>15000</v>
       </c>
       <c r="H12" s="12"/>
@@ -6188,16 +6770,16 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="70" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="87">
+      <c r="E13" s="64"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="81">
         <v>0</v>
       </c>
       <c r="H13" s="12"/>
@@ -6209,16 +6791,16 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="70" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="87">
+      <c r="E14" s="64"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="81">
         <v>0</v>
       </c>
       <c r="H14" s="12"/>
@@ -6230,16 +6812,16 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="87"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="2"/>
@@ -6249,16 +6831,16 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="70" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="87" t="s">
+      <c r="E16" s="64"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="81" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="12"/>
@@ -6270,16 +6852,16 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="70" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="87">
+      <c r="E17" s="64"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="81">
         <v>600</v>
       </c>
       <c r="H17" s="12"/>
@@ -6291,16 +6873,16 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="70" t="s">
+      <c r="C18" s="80"/>
+      <c r="D18" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="87">
+      <c r="E18" s="64"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="81">
         <v>13000</v>
       </c>
       <c r="H18" s="12"/>
@@ -6312,16 +6894,16 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="70" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="87">
+      <c r="E19" s="64"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="81">
         <v>0</v>
       </c>
       <c r="H19" s="12"/>
@@ -6333,16 +6915,16 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="70" t="s">
+      <c r="C20" s="80"/>
+      <c r="D20" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="87">
+      <c r="E20" s="64"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="81">
         <v>0</v>
       </c>
       <c r="H20" s="12"/>
@@ -6354,16 +6936,16 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="87">
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="81">
         <v>4670</v>
       </c>
       <c r="H21" s="12"/>
@@ -6375,16 +6957,16 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91" t="s">
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="12"/>
@@ -6396,14 +6978,14 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="2"/>
@@ -6413,10 +6995,10 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="77" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="10"/>
@@ -6432,16 +7014,16 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="155" t="s">
+      <c r="C25" s="161" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="101">
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="95">
         <v>120000</v>
       </c>
       <c r="H25" s="10"/>
@@ -6453,16 +7035,16 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="87">
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="81">
         <v>95000</v>
       </c>
       <c r="H26" s="10"/>
@@ -6474,16 +7056,16 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="104">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="98">
         <v>0.12</v>
       </c>
       <c r="H27" s="10"/>
@@ -6495,16 +7077,16 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="105" t="s">
+      <c r="C28" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108">
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="102">
         <v>0.1</v>
       </c>
       <c r="H28" s="10"/>
@@ -6516,14 +7098,14 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="93"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="2"/>
@@ -6533,16 +7115,16 @@
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="93"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="2"/>
@@ -6552,16 +7134,16 @@
       <c r="N30" s="2"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="138" t="s">
+      <c r="C31" s="174"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="93"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="87"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="2"/>
@@ -6571,18 +7153,18 @@
       <c r="N31" s="2"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="164" t="s">
+      <c r="C32" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="165"/>
-      <c r="E32" s="99">
+      <c r="D32" s="171"/>
+      <c r="E32" s="93">
         <v>1.48</v>
       </c>
-      <c r="F32" s="77"/>
-      <c r="G32" s="93"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="87"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="2"/>
@@ -6592,18 +7174,18 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="166" t="s">
+      <c r="C33" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="167"/>
-      <c r="E33" s="137">
+      <c r="D33" s="173"/>
+      <c r="E33" s="131">
         <v>1.8</v>
       </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="93"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="87"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="2"/>
@@ -6613,14 +7195,14 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="93"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="87"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="2"/>
@@ -6630,16 +7212,16 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="100" t="s">
+      <c r="C35" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="93"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="87"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="2"/>
@@ -6649,16 +7231,16 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="161" t="s">
+      <c r="C36" s="88"/>
+      <c r="D36" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="162"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="93"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="87"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="2"/>
@@ -6668,22 +7250,22 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="125" t="s">
+      <c r="C37" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="98">
+      <c r="D37" s="92">
         <v>0.5</v>
       </c>
-      <c r="E37" s="98">
+      <c r="E37" s="92">
         <v>1.5</v>
       </c>
-      <c r="F37" s="99">
+      <c r="F37" s="93">
         <v>2.5</v>
       </c>
-      <c r="G37" s="93"/>
+      <c r="G37" s="87"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="2"/>
@@ -6693,22 +7275,22 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="96">
+      <c r="D38" s="90">
         <v>0.03</v>
       </c>
-      <c r="E38" s="96">
+      <c r="E38" s="90">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F38" s="97">
+      <c r="F38" s="91">
         <v>0.04</v>
       </c>
-      <c r="G38" s="93"/>
+      <c r="G38" s="87"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="2"/>
@@ -6718,14 +7300,14 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="93"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="87"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="2"/>
@@ -6735,10 +7317,10 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="77" t="s">
         <v>109</v>
       </c>
       <c r="D40" s="10"/>
@@ -6754,16 +7336,16 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="155" t="s">
+      <c r="C41" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="101">
+      <c r="D41" s="162"/>
+      <c r="E41" s="162"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="95">
         <v>134000</v>
       </c>
       <c r="H41" s="10"/>
@@ -6775,16 +7357,16 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="139">
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="133">
         <v>2.5</v>
       </c>
       <c r="H42" s="2"/>
@@ -6796,16 +7378,16 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="110">
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="104">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H43" s="12"/>
@@ -6817,14 +7399,14 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="93"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="87"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="2"/>
@@ -6834,19 +7416,19 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="100" t="s">
+      <c r="C45" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="123" t="s">
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="H45" s="124" t="s">
+      <c r="H45" s="118" t="s">
         <v>117</v>
       </c>
       <c r="I45" s="12"/>
@@ -6857,19 +7439,19 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="117" t="s">
+      <c r="C46" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120">
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="114">
         <v>220000</v>
       </c>
-      <c r="H46" s="121">
+      <c r="H46" s="115">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I46" s="12"/>
@@ -6880,19 +7462,19 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="103" t="s">
+      <c r="C47" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="112">
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="106">
         <v>150000</v>
       </c>
-      <c r="H47" s="111" t="s">
+      <c r="H47" s="105" t="s">
         <v>119</v>
       </c>
       <c r="I47" s="12"/>
@@ -6903,19 +7485,19 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="103" t="s">
+      <c r="C48" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="112">
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="106">
         <v>5100</v>
       </c>
-      <c r="H48" s="111">
+      <c r="H48" s="105">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I48" s="12"/>
@@ -6926,19 +7508,19 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="103" t="s">
+      <c r="C49" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="112" t="s">
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="H49" s="111">
+      <c r="H49" s="105">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I49" s="12"/>
@@ -6949,19 +7531,19 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="158" t="s">
+      <c r="C50" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="112" t="s">
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="H50" s="111">
+      <c r="H50" s="105">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="I50" s="12"/>
@@ -6972,19 +7554,19 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="105" t="s">
+      <c r="C51" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="122" t="s">
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="H51" s="109">
+      <c r="H51" s="103">
         <v>0.5</v>
       </c>
       <c r="I51" s="12"/>
@@ -6995,14 +7577,14 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="93"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="87"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="2"/>
@@ -7012,16 +7594,16 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="113" t="s">
+      <c r="C53" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="116">
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="110">
         <v>75000</v>
       </c>
       <c r="H53" s="12"/>
@@ -7033,14 +7615,14 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="93"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="87"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="2"/>
@@ -7050,16 +7632,16 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="93"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="87"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="2"/>
@@ -7069,18 +7651,18 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="129" t="s">
+      <c r="C56" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="D56" s="130" t="s">
+      <c r="D56" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="127"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="93"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="87"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="2"/>
@@ -7090,17 +7672,17 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="95">
+      <c r="C57" s="89">
         <v>12</v>
       </c>
-      <c r="D57" s="131">
+      <c r="D57" s="125">
         <v>0.25</v>
       </c>
-      <c r="E57" s="76"/>
-      <c r="F57" s="77"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="71"/>
       <c r="G57" s="2"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -7111,17 +7693,17 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="95">
+      <c r="C58" s="89">
         <v>24</v>
       </c>
-      <c r="D58" s="131">
+      <c r="D58" s="125">
         <v>0.5</v>
       </c>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="71"/>
       <c r="G58" s="2"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -7132,16 +7714,16 @@
       <c r="N58" s="2"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="132">
+      <c r="C59" s="126">
         <v>36</v>
       </c>
-      <c r="D59" s="133">
+      <c r="D59" s="127">
         <v>0.75</v>
       </c>
-      <c r="E59" s="65"/>
+      <c r="E59" s="59"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="12"/>
@@ -7153,16 +7735,16 @@
       <c r="N59" s="2"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="134">
+      <c r="C60" s="128">
         <v>48</v>
       </c>
-      <c r="D60" s="135">
+      <c r="D60" s="129">
         <v>1</v>
       </c>
-      <c r="E60" s="65"/>
+      <c r="E60" s="59"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="12"/>
@@ -7174,12 +7756,12 @@
       <c r="N60" s="2"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="12"/>
@@ -7191,14 +7773,14 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="5"/>
       <c r="C62" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="12"/>
@@ -7210,12 +7792,12 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="12"/>
@@ -7227,14 +7809,14 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="5"/>
       <c r="C64" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="12"/>
@@ -7246,14 +7828,14 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="12"/>
@@ -7265,12 +7847,12 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="12"/>
@@ -7282,12 +7864,12 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="12"/>
@@ -7299,12 +7881,12 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="12"/>
@@ -7316,7 +7898,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -7333,14 +7915,14 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="5"/>
       <c r="C70" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="12"/>
@@ -7352,14 +7934,14 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="12"/>
@@ -7371,10 +7953,10 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="58" t="s">
         <v>135</v>
       </c>
       <c r="D72" s="2"/>
@@ -7390,10 +7972,10 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="64"/>
+      <c r="C73" s="58"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -7407,7 +7989,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="2"/>
       <c r="C74" s="7" t="s">
@@ -7426,10 +8008,10 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="58" t="s">
         <v>138</v>
       </c>
       <c r="D75" s="2"/>
@@ -7445,10 +8027,10 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="64"/>
+      <c r="C76" s="58"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -7462,7 +8044,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="2"/>
       <c r="C77" s="7" t="s">
@@ -7481,10 +8063,10 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="58" t="s">
         <v>139</v>
       </c>
       <c r="D78" s="2"/>
@@ -7500,7 +8082,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
@@ -7517,7 +8099,7 @@
       <c r="N79" s="20"/>
       <c r="O79" s="21"/>
     </row>
-    <row r="80" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
         <v>0</v>
       </c>
@@ -7537,347 +8119,347 @@
       <c r="O80" s="26"/>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="38"/>
-    </row>
-    <row r="82" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="38"/>
-    </row>
-    <row r="83" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="38"/>
-    </row>
-    <row r="84" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="38"/>
-    </row>
-    <row r="85" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="38"/>
-    </row>
-    <row r="86" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="66"/>
-    </row>
-    <row r="87" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="38"/>
-    </row>
-    <row r="88" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="38"/>
-    </row>
-    <row r="89" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="38"/>
-    </row>
-    <row r="90" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="38"/>
-    </row>
-    <row r="91" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="38"/>
-    </row>
-    <row r="92" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="38"/>
-    </row>
-    <row r="93" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="66"/>
-    </row>
-    <row r="94" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="38"/>
-    </row>
-    <row r="95" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="66"/>
-    </row>
-    <row r="96" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="38"/>
-    </row>
-    <row r="97" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="38"/>
-    </row>
-    <row r="98" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="38"/>
-    </row>
-    <row r="99" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="38"/>
-    </row>
-    <row r="100" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="38"/>
-    </row>
-    <row r="101" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="66"/>
-    </row>
-    <row r="102" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="38"/>
-    </row>
-    <row r="103" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="38"/>
-    </row>
-    <row r="104" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="38"/>
-    </row>
-    <row r="105" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" x14ac:dyDescent="0.35"/>
-    <row r="225" x14ac:dyDescent="0.35"/>
-    <row r="226" x14ac:dyDescent="0.35"/>
-    <row r="227" x14ac:dyDescent="0.35"/>
-    <row r="228" x14ac:dyDescent="0.35"/>
-    <row r="229" x14ac:dyDescent="0.35"/>
-    <row r="230" x14ac:dyDescent="0.35"/>
-    <row r="231" x14ac:dyDescent="0.35"/>
-    <row r="232" x14ac:dyDescent="0.35"/>
-    <row r="233" x14ac:dyDescent="0.35"/>
-    <row r="234" x14ac:dyDescent="0.35"/>
-    <row r="235" x14ac:dyDescent="0.35"/>
-    <row r="236" x14ac:dyDescent="0.35"/>
-    <row r="237" x14ac:dyDescent="0.35"/>
-    <row r="238" x14ac:dyDescent="0.35"/>
-    <row r="239" x14ac:dyDescent="0.35"/>
-    <row r="240" x14ac:dyDescent="0.35"/>
-    <row r="241" x14ac:dyDescent="0.35"/>
-    <row r="242" x14ac:dyDescent="0.35"/>
-    <row r="243" x14ac:dyDescent="0.35"/>
-    <row r="244" x14ac:dyDescent="0.35"/>
-    <row r="245" x14ac:dyDescent="0.35"/>
-    <row r="246" x14ac:dyDescent="0.35"/>
-    <row r="247" x14ac:dyDescent="0.35"/>
-    <row r="248" x14ac:dyDescent="0.35"/>
-    <row r="249" x14ac:dyDescent="0.35"/>
-    <row r="250" x14ac:dyDescent="0.35"/>
-    <row r="251" x14ac:dyDescent="0.35"/>
-    <row r="252" x14ac:dyDescent="0.35"/>
-    <row r="253" x14ac:dyDescent="0.35"/>
-    <row r="254" x14ac:dyDescent="0.35"/>
-    <row r="255" x14ac:dyDescent="0.35"/>
-    <row r="256" x14ac:dyDescent="0.35"/>
-    <row r="257" x14ac:dyDescent="0.35"/>
-    <row r="258" x14ac:dyDescent="0.35"/>
-    <row r="259" x14ac:dyDescent="0.35"/>
-    <row r="260" x14ac:dyDescent="0.35"/>
-    <row r="261" x14ac:dyDescent="0.35"/>
-    <row r="262" x14ac:dyDescent="0.35"/>
-    <row r="263" x14ac:dyDescent="0.35"/>
-    <row r="264" x14ac:dyDescent="0.35"/>
-    <row r="265" x14ac:dyDescent="0.35"/>
-    <row r="266" x14ac:dyDescent="0.35"/>
-    <row r="267" x14ac:dyDescent="0.35"/>
-    <row r="268" x14ac:dyDescent="0.35"/>
-    <row r="269" x14ac:dyDescent="0.35"/>
-    <row r="270" x14ac:dyDescent="0.35"/>
-    <row r="271" x14ac:dyDescent="0.35"/>
-    <row r="272" x14ac:dyDescent="0.35"/>
-    <row r="273" x14ac:dyDescent="0.35"/>
-    <row r="274" x14ac:dyDescent="0.35"/>
-    <row r="275" x14ac:dyDescent="0.35"/>
-    <row r="276" x14ac:dyDescent="0.35"/>
-    <row r="277" x14ac:dyDescent="0.35"/>
-    <row r="278" x14ac:dyDescent="0.35"/>
-    <row r="279" x14ac:dyDescent="0.35"/>
-    <row r="280" x14ac:dyDescent="0.35"/>
-    <row r="281" x14ac:dyDescent="0.35"/>
-    <row r="282" x14ac:dyDescent="0.35"/>
-    <row r="283" x14ac:dyDescent="0.35"/>
-    <row r="284" x14ac:dyDescent="0.35"/>
-    <row r="285" x14ac:dyDescent="0.35"/>
-    <row r="286" x14ac:dyDescent="0.35"/>
-    <row r="287" x14ac:dyDescent="0.35"/>
-    <row r="288" x14ac:dyDescent="0.35"/>
-    <row r="289" x14ac:dyDescent="0.35"/>
-    <row r="290" x14ac:dyDescent="0.35"/>
-    <row r="291" x14ac:dyDescent="0.35"/>
-    <row r="292" x14ac:dyDescent="0.35"/>
-    <row r="293" x14ac:dyDescent="0.35"/>
-    <row r="294" x14ac:dyDescent="0.35"/>
-    <row r="295" x14ac:dyDescent="0.35"/>
-    <row r="296" x14ac:dyDescent="0.35"/>
-    <row r="297" x14ac:dyDescent="0.35"/>
-    <row r="298" x14ac:dyDescent="0.35"/>
-    <row r="299" x14ac:dyDescent="0.35"/>
-    <row r="300" x14ac:dyDescent="0.35"/>
-    <row r="301" x14ac:dyDescent="0.35"/>
-    <row r="302" x14ac:dyDescent="0.35"/>
-    <row r="303" x14ac:dyDescent="0.35"/>
-    <row r="304" x14ac:dyDescent="0.35"/>
-    <row r="305" x14ac:dyDescent="0.35"/>
-    <row r="306" x14ac:dyDescent="0.35"/>
-    <row r="307" x14ac:dyDescent="0.35"/>
-    <row r="308" x14ac:dyDescent="0.35"/>
-    <row r="309" x14ac:dyDescent="0.35"/>
-    <row r="310" x14ac:dyDescent="0.35"/>
-    <row r="311" x14ac:dyDescent="0.35"/>
-    <row r="312" x14ac:dyDescent="0.35"/>
-    <row r="313" x14ac:dyDescent="0.35"/>
-    <row r="314" x14ac:dyDescent="0.35"/>
-    <row r="315" x14ac:dyDescent="0.35"/>
-    <row r="316" x14ac:dyDescent="0.35"/>
-    <row r="317" x14ac:dyDescent="0.35"/>
-    <row r="318" x14ac:dyDescent="0.35"/>
-    <row r="319" x14ac:dyDescent="0.35"/>
-    <row r="320" x14ac:dyDescent="0.35"/>
-    <row r="321" x14ac:dyDescent="0.35"/>
-    <row r="322" x14ac:dyDescent="0.35"/>
-    <row r="323" x14ac:dyDescent="0.35"/>
-    <row r="324" x14ac:dyDescent="0.35"/>
-    <row r="325" x14ac:dyDescent="0.35"/>
-    <row r="326" x14ac:dyDescent="0.35"/>
-    <row r="327" x14ac:dyDescent="0.35"/>
-    <row r="328" x14ac:dyDescent="0.35"/>
-    <row r="329" x14ac:dyDescent="0.35"/>
-    <row r="330" x14ac:dyDescent="0.35"/>
-    <row r="331" x14ac:dyDescent="0.35"/>
-    <row r="332" x14ac:dyDescent="0.35"/>
-    <row r="333" x14ac:dyDescent="0.35"/>
-    <row r="334" x14ac:dyDescent="0.35"/>
-    <row r="335" x14ac:dyDescent="0.35"/>
-    <row r="336" x14ac:dyDescent="0.35"/>
-    <row r="337" x14ac:dyDescent="0.35"/>
-    <row r="338" x14ac:dyDescent="0.35"/>
-    <row r="339" x14ac:dyDescent="0.35"/>
-    <row r="340" x14ac:dyDescent="0.35"/>
-    <row r="341" x14ac:dyDescent="0.35"/>
-    <row r="342" x14ac:dyDescent="0.35"/>
-    <row r="343" x14ac:dyDescent="0.35"/>
-    <row r="344" x14ac:dyDescent="0.35"/>
-    <row r="345" x14ac:dyDescent="0.35"/>
-    <row r="346" x14ac:dyDescent="0.35"/>
-    <row r="347" x14ac:dyDescent="0.35"/>
-    <row r="348" x14ac:dyDescent="0.35"/>
-    <row r="349" x14ac:dyDescent="0.35"/>
-    <row r="350" x14ac:dyDescent="0.35"/>
-    <row r="351" x14ac:dyDescent="0.35"/>
-    <row r="352" x14ac:dyDescent="0.35"/>
-    <row r="353" x14ac:dyDescent="0.35"/>
-    <row r="354" x14ac:dyDescent="0.35"/>
-    <row r="355" x14ac:dyDescent="0.35"/>
-    <row r="356" x14ac:dyDescent="0.35"/>
-    <row r="357" x14ac:dyDescent="0.35"/>
-    <row r="358" x14ac:dyDescent="0.35"/>
-    <row r="359" x14ac:dyDescent="0.35"/>
-    <row r="360" x14ac:dyDescent="0.35"/>
-    <row r="361" x14ac:dyDescent="0.35"/>
-    <row r="362" x14ac:dyDescent="0.35"/>
-    <row r="363" x14ac:dyDescent="0.35"/>
-    <row r="364" x14ac:dyDescent="0.35"/>
-    <row r="365" x14ac:dyDescent="0.35"/>
-    <row r="366" x14ac:dyDescent="0.35"/>
-    <row r="367" x14ac:dyDescent="0.35"/>
-    <row r="368" x14ac:dyDescent="0.35"/>
-    <row r="369" x14ac:dyDescent="0.35"/>
-    <row r="370" x14ac:dyDescent="0.35"/>
-    <row r="371" x14ac:dyDescent="0.35"/>
-    <row r="372" x14ac:dyDescent="0.35"/>
-    <row r="373" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="37"/>
+    </row>
+    <row r="82" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="37"/>
+    </row>
+    <row r="83" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="37"/>
+    </row>
+    <row r="84" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="37"/>
+    </row>
+    <row r="85" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="37"/>
+    </row>
+    <row r="86" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="60"/>
+    </row>
+    <row r="87" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="37"/>
+    </row>
+    <row r="88" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="37"/>
+    </row>
+    <row r="89" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="37"/>
+    </row>
+    <row r="90" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="37"/>
+    </row>
+    <row r="91" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="37"/>
+    </row>
+    <row r="92" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="37"/>
+    </row>
+    <row r="93" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="60"/>
+    </row>
+    <row r="94" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="37"/>
+    </row>
+    <row r="95" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="60"/>
+    </row>
+    <row r="96" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="37"/>
+    </row>
+    <row r="97" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="37"/>
+    </row>
+    <row r="98" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="37"/>
+    </row>
+    <row r="99" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="37"/>
+    </row>
+    <row r="100" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="37"/>
+    </row>
+    <row r="101" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="60"/>
+    </row>
+    <row r="102" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="37"/>
+    </row>
+    <row r="103" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="37"/>
+    </row>
+    <row r="104" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="37"/>
+    </row>
+    <row r="105" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="2:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" x14ac:dyDescent="0.25"/>
+    <row r="225" x14ac:dyDescent="0.25"/>
+    <row r="226" x14ac:dyDescent="0.25"/>
+    <row r="227" x14ac:dyDescent="0.25"/>
+    <row r="228" x14ac:dyDescent="0.25"/>
+    <row r="229" x14ac:dyDescent="0.25"/>
+    <row r="230" x14ac:dyDescent="0.25"/>
+    <row r="231" x14ac:dyDescent="0.25"/>
+    <row r="232" x14ac:dyDescent="0.25"/>
+    <row r="233" x14ac:dyDescent="0.25"/>
+    <row r="234" x14ac:dyDescent="0.25"/>
+    <row r="235" x14ac:dyDescent="0.25"/>
+    <row r="236" x14ac:dyDescent="0.25"/>
+    <row r="237" x14ac:dyDescent="0.25"/>
+    <row r="238" x14ac:dyDescent="0.25"/>
+    <row r="239" x14ac:dyDescent="0.25"/>
+    <row r="240" x14ac:dyDescent="0.25"/>
+    <row r="241" x14ac:dyDescent="0.25"/>
+    <row r="242" x14ac:dyDescent="0.25"/>
+    <row r="243" x14ac:dyDescent="0.25"/>
+    <row r="244" x14ac:dyDescent="0.25"/>
+    <row r="245" x14ac:dyDescent="0.25"/>
+    <row r="246" x14ac:dyDescent="0.25"/>
+    <row r="247" x14ac:dyDescent="0.25"/>
+    <row r="248" x14ac:dyDescent="0.25"/>
+    <row r="249" x14ac:dyDescent="0.25"/>
+    <row r="250" x14ac:dyDescent="0.25"/>
+    <row r="251" x14ac:dyDescent="0.25"/>
+    <row r="252" x14ac:dyDescent="0.25"/>
+    <row r="253" x14ac:dyDescent="0.25"/>
+    <row r="254" x14ac:dyDescent="0.25"/>
+    <row r="255" x14ac:dyDescent="0.25"/>
+    <row r="256" x14ac:dyDescent="0.25"/>
+    <row r="257" x14ac:dyDescent="0.25"/>
+    <row r="258" x14ac:dyDescent="0.25"/>
+    <row r="259" x14ac:dyDescent="0.25"/>
+    <row r="260" x14ac:dyDescent="0.25"/>
+    <row r="261" x14ac:dyDescent="0.25"/>
+    <row r="262" x14ac:dyDescent="0.25"/>
+    <row r="263" x14ac:dyDescent="0.25"/>
+    <row r="264" x14ac:dyDescent="0.25"/>
+    <row r="265" x14ac:dyDescent="0.25"/>
+    <row r="266" x14ac:dyDescent="0.25"/>
+    <row r="267" x14ac:dyDescent="0.25"/>
+    <row r="268" x14ac:dyDescent="0.25"/>
+    <row r="269" x14ac:dyDescent="0.25"/>
+    <row r="270" x14ac:dyDescent="0.25"/>
+    <row r="271" x14ac:dyDescent="0.25"/>
+    <row r="272" x14ac:dyDescent="0.25"/>
+    <row r="273" x14ac:dyDescent="0.25"/>
+    <row r="274" x14ac:dyDescent="0.25"/>
+    <row r="275" x14ac:dyDescent="0.25"/>
+    <row r="276" x14ac:dyDescent="0.25"/>
+    <row r="277" x14ac:dyDescent="0.25"/>
+    <row r="278" x14ac:dyDescent="0.25"/>
+    <row r="279" x14ac:dyDescent="0.25"/>
+    <row r="280" x14ac:dyDescent="0.25"/>
+    <row r="281" x14ac:dyDescent="0.25"/>
+    <row r="282" x14ac:dyDescent="0.25"/>
+    <row r="283" x14ac:dyDescent="0.25"/>
+    <row r="284" x14ac:dyDescent="0.25"/>
+    <row r="285" x14ac:dyDescent="0.25"/>
+    <row r="286" x14ac:dyDescent="0.25"/>
+    <row r="287" x14ac:dyDescent="0.25"/>
+    <row r="288" x14ac:dyDescent="0.25"/>
+    <row r="289" x14ac:dyDescent="0.25"/>
+    <row r="290" x14ac:dyDescent="0.25"/>
+    <row r="291" x14ac:dyDescent="0.25"/>
+    <row r="292" x14ac:dyDescent="0.25"/>
+    <row r="293" x14ac:dyDescent="0.25"/>
+    <row r="294" x14ac:dyDescent="0.25"/>
+    <row r="295" x14ac:dyDescent="0.25"/>
+    <row r="296" x14ac:dyDescent="0.25"/>
+    <row r="297" x14ac:dyDescent="0.25"/>
+    <row r="298" x14ac:dyDescent="0.25"/>
+    <row r="299" x14ac:dyDescent="0.25"/>
+    <row r="300" x14ac:dyDescent="0.25"/>
+    <row r="301" x14ac:dyDescent="0.25"/>
+    <row r="302" x14ac:dyDescent="0.25"/>
+    <row r="303" x14ac:dyDescent="0.25"/>
+    <row r="304" x14ac:dyDescent="0.25"/>
+    <row r="305" x14ac:dyDescent="0.25"/>
+    <row r="306" x14ac:dyDescent="0.25"/>
+    <row r="307" x14ac:dyDescent="0.25"/>
+    <row r="308" x14ac:dyDescent="0.25"/>
+    <row r="309" x14ac:dyDescent="0.25"/>
+    <row r="310" x14ac:dyDescent="0.25"/>
+    <row r="311" x14ac:dyDescent="0.25"/>
+    <row r="312" x14ac:dyDescent="0.25"/>
+    <row r="313" x14ac:dyDescent="0.25"/>
+    <row r="314" x14ac:dyDescent="0.25"/>
+    <row r="315" x14ac:dyDescent="0.25"/>
+    <row r="316" x14ac:dyDescent="0.25"/>
+    <row r="317" x14ac:dyDescent="0.25"/>
+    <row r="318" x14ac:dyDescent="0.25"/>
+    <row r="319" x14ac:dyDescent="0.25"/>
+    <row r="320" x14ac:dyDescent="0.25"/>
+    <row r="321" x14ac:dyDescent="0.25"/>
+    <row r="322" x14ac:dyDescent="0.25"/>
+    <row r="323" x14ac:dyDescent="0.25"/>
+    <row r="324" x14ac:dyDescent="0.25"/>
+    <row r="325" x14ac:dyDescent="0.25"/>
+    <row r="326" x14ac:dyDescent="0.25"/>
+    <row r="327" x14ac:dyDescent="0.25"/>
+    <row r="328" x14ac:dyDescent="0.25"/>
+    <row r="329" x14ac:dyDescent="0.25"/>
+    <row r="330" x14ac:dyDescent="0.25"/>
+    <row r="331" x14ac:dyDescent="0.25"/>
+    <row r="332" x14ac:dyDescent="0.25"/>
+    <row r="333" x14ac:dyDescent="0.25"/>
+    <row r="334" x14ac:dyDescent="0.25"/>
+    <row r="335" x14ac:dyDescent="0.25"/>
+    <row r="336" x14ac:dyDescent="0.25"/>
+    <row r="337" x14ac:dyDescent="0.25"/>
+    <row r="338" x14ac:dyDescent="0.25"/>
+    <row r="339" x14ac:dyDescent="0.25"/>
+    <row r="340" x14ac:dyDescent="0.25"/>
+    <row r="341" x14ac:dyDescent="0.25"/>
+    <row r="342" x14ac:dyDescent="0.25"/>
+    <row r="343" x14ac:dyDescent="0.25"/>
+    <row r="344" x14ac:dyDescent="0.25"/>
+    <row r="345" x14ac:dyDescent="0.25"/>
+    <row r="346" x14ac:dyDescent="0.25"/>
+    <row r="347" x14ac:dyDescent="0.25"/>
+    <row r="348" x14ac:dyDescent="0.25"/>
+    <row r="349" x14ac:dyDescent="0.25"/>
+    <row r="350" x14ac:dyDescent="0.25"/>
+    <row r="351" x14ac:dyDescent="0.25"/>
+    <row r="352" x14ac:dyDescent="0.25"/>
+    <row r="353" x14ac:dyDescent="0.25"/>
+    <row r="354" x14ac:dyDescent="0.25"/>
+    <row r="355" x14ac:dyDescent="0.25"/>
+    <row r="356" x14ac:dyDescent="0.25"/>
+    <row r="357" x14ac:dyDescent="0.25"/>
+    <row r="358" x14ac:dyDescent="0.25"/>
+    <row r="359" x14ac:dyDescent="0.25"/>
+    <row r="360" x14ac:dyDescent="0.25"/>
+    <row r="361" x14ac:dyDescent="0.25"/>
+    <row r="362" x14ac:dyDescent="0.25"/>
+    <row r="363" x14ac:dyDescent="0.25"/>
+    <row r="364" x14ac:dyDescent="0.25"/>
+    <row r="365" x14ac:dyDescent="0.25"/>
+    <row r="366" x14ac:dyDescent="0.25"/>
+    <row r="367" x14ac:dyDescent="0.25"/>
+    <row r="368" x14ac:dyDescent="0.25"/>
+    <row r="369" x14ac:dyDescent="0.25"/>
+    <row r="370" x14ac:dyDescent="0.25"/>
+    <row r="371" x14ac:dyDescent="0.25"/>
+    <row r="372" x14ac:dyDescent="0.25"/>
+    <row r="373" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C25:F25"/>
@@ -7897,23 +8479,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF4E1E2-7F7A-4D82-9775-712F96733E36}">
   <dimension ref="A1:O320"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="16.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" style="4" customWidth="1"/>
-    <col min="10" max="12" width="11.453125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" style="4" customWidth="1"/>
-    <col min="14" max="57" width="11.453125" style="4" customWidth="1"/>
+    <col min="6" max="9" width="10.85546875" style="4" customWidth="1"/>
+    <col min="10" max="12" width="11.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="4" customWidth="1"/>
+    <col min="14" max="57" width="11.42578125" style="4" customWidth="1"/>
     <col min="58" max="16384" width="0" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>151</v>
       </c>
       <c r="B1" s="2"/>
@@ -7929,7 +8511,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7944,7 +8526,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7959,7 +8541,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>158</v>
@@ -7976,7 +8558,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
@@ -7991,7 +8573,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
@@ -8009,7 +8591,7 @@
       <c r="M6" s="3"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
@@ -8027,7 +8609,7 @@
       <c r="M7" s="3"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
@@ -8042,26 +8624,26 @@
       <c r="L8" s="7"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="68" t="s">
+      <c r="D9" s="159"/>
+      <c r="E9" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="140">
+      <c r="F9" s="134">
         <v>2022</v>
       </c>
-      <c r="G9" s="140">
+      <c r="G9" s="134">
         <v>2023</v>
       </c>
-      <c r="H9" s="140">
+      <c r="H9" s="134">
         <v>2024</v>
       </c>
-      <c r="I9" s="140">
+      <c r="I9" s="134">
         <v>2025</v>
       </c>
       <c r="J9" s="2"/>
@@ -8069,26 +8651,26 @@
       <c r="L9" s="2"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="69" t="s">
+      <c r="D10" s="176"/>
+      <c r="E10" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="145">
+      <c r="F10" s="137">
         <v>2.15</v>
       </c>
-      <c r="G10" s="145">
+      <c r="G10" s="137">
         <v>2.4</v>
       </c>
-      <c r="H10" s="146">
+      <c r="H10" s="138">
         <v>2.5</v>
       </c>
-      <c r="I10" s="146">
+      <c r="I10" s="138">
         <v>2.65</v>
       </c>
       <c r="J10" s="2"/>
@@ -8096,26 +8678,26 @@
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="69" t="s">
+      <c r="C11" s="177"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="140">
+      <c r="F11" s="134">
         <v>1000</v>
       </c>
-      <c r="G11" s="140">
+      <c r="G11" s="134">
         <f t="shared" ref="G11:I12" si="0">F11*1.1</f>
         <v>1100</v>
       </c>
-      <c r="H11" s="141">
+      <c r="H11" s="135">
         <f t="shared" si="0"/>
         <v>1210</v>
       </c>
-      <c r="I11" s="141">
+      <c r="I11" s="135">
         <f t="shared" si="0"/>
         <v>1331</v>
       </c>
@@ -8124,26 +8706,26 @@
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="69" t="s">
+      <c r="C12" s="179"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="140">
+      <c r="F12" s="134">
         <v>700</v>
       </c>
-      <c r="G12" s="140">
+      <c r="G12" s="134">
         <f t="shared" si="0"/>
         <v>770.00000000000011</v>
       </c>
-      <c r="H12" s="141">
+      <c r="H12" s="135">
         <f t="shared" si="0"/>
         <v>847.00000000000023</v>
       </c>
-      <c r="I12" s="141">
+      <c r="I12" s="135">
         <f t="shared" si="0"/>
         <v>931.70000000000027</v>
       </c>
@@ -8152,26 +8734,26 @@
       <c r="L12" s="2"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="169" t="s">
+      <c r="C13" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="170"/>
-      <c r="E13" s="69" t="s">
+      <c r="D13" s="176"/>
+      <c r="E13" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="145">
+      <c r="F13" s="137">
         <v>2.15</v>
       </c>
-      <c r="G13" s="145">
+      <c r="G13" s="137">
         <v>1.7</v>
       </c>
-      <c r="H13" s="146">
+      <c r="H13" s="138">
         <v>1.25</v>
       </c>
-      <c r="I13" s="146">
+      <c r="I13" s="138">
         <v>1.46</v>
       </c>
       <c r="J13" s="2"/>
@@ -8179,24 +8761,24 @@
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="69" t="s">
+      <c r="C14" s="177"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="140">
+      <c r="F14" s="134">
         <v>1000</v>
       </c>
-      <c r="G14" s="140">
+      <c r="G14" s="134">
         <v>944</v>
       </c>
-      <c r="H14" s="141">
+      <c r="H14" s="135">
         <v>5890.4</v>
       </c>
-      <c r="I14" s="141">
+      <c r="I14" s="135">
         <v>919.44</v>
       </c>
       <c r="J14" s="2"/>
@@ -8204,24 +8786,24 @@
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="69" t="s">
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="140">
+      <c r="F15" s="134">
         <v>700</v>
       </c>
-      <c r="G15" s="140">
+      <c r="G15" s="134">
         <v>714</v>
       </c>
-      <c r="H15" s="141">
+      <c r="H15" s="135">
         <v>727.4</v>
       </c>
-      <c r="I15" s="141">
+      <c r="I15" s="135">
         <v>720.14</v>
       </c>
       <c r="J15" s="2"/>
@@ -8229,26 +8811,26 @@
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="169" t="s">
+      <c r="C16" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="69" t="s">
+      <c r="D16" s="176"/>
+      <c r="E16" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="145">
+      <c r="F16" s="137">
         <v>2.15</v>
       </c>
-      <c r="G16" s="147">
+      <c r="G16" s="139">
         <v>-0.182</v>
       </c>
-      <c r="H16" s="148">
+      <c r="H16" s="140">
         <v>0.112</v>
       </c>
-      <c r="I16" s="148">
+      <c r="I16" s="140">
         <v>0.40400000000000003</v>
       </c>
       <c r="J16" s="2"/>
@@ -8256,24 +8838,24 @@
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="177"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="140">
+      <c r="F17" s="134">
         <v>1000</v>
       </c>
-      <c r="G17" s="140">
+      <c r="G17" s="134">
         <v>744</v>
       </c>
-      <c r="H17" s="141">
+      <c r="H17" s="135">
         <v>770.4</v>
       </c>
-      <c r="I17" s="141">
+      <c r="I17" s="135">
         <v>799.44</v>
       </c>
       <c r="J17" s="2"/>
@@ -8281,24 +8863,24 @@
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="69" t="s">
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="140">
+      <c r="F18" s="134">
         <v>700</v>
       </c>
-      <c r="G18" s="140">
+      <c r="G18" s="134">
         <v>764</v>
       </c>
-      <c r="H18" s="141">
+      <c r="H18" s="135">
         <v>757.4</v>
       </c>
-      <c r="I18" s="141">
+      <c r="I18" s="135">
         <v>750.14</v>
       </c>
       <c r="J18" s="2"/>
@@ -8306,22 +8888,22 @@
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
@@ -8336,26 +8918,26 @@
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
       <c r="C21" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="52">
+      <c r="E21" s="47">
         <v>2</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="67"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
@@ -8370,7 +8952,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="7" t="s">
@@ -8387,10 +8969,10 @@
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="58" t="s">
         <v>152</v>
       </c>
       <c r="D24" s="2"/>
@@ -8404,7 +8986,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
@@ -8419,7 +9001,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="7" t="s">
@@ -8436,10 +9018,10 @@
       <c r="L26" s="2"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>153</v>
       </c>
       <c r="D27" s="2"/>
@@ -8453,10 +9035,10 @@
       <c r="L27" s="2"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -8468,7 +9050,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="7" t="s">
@@ -8485,10 +9067,10 @@
       <c r="L29" s="2"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="36" t="s">
         <v>154</v>
       </c>
       <c r="D30" s="2"/>
@@ -8502,10 +9084,10 @@
       <c r="L30" s="2"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="37"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -8517,7 +9099,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="2"/>
       <c r="C32" s="7" t="s">
@@ -8534,10 +9116,10 @@
       <c r="L32" s="2"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="36" t="s">
         <v>156</v>
       </c>
       <c r="D33" s="2"/>
@@ -8551,10 +9133,10 @@
       <c r="L33" s="2"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -8566,7 +9148,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>0</v>
       </c>
@@ -8584,7 +9166,7 @@
       <c r="M35" s="26"/>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="28"/>
@@ -8599,290 +9181,290 @@
       <c r="L36" s="29"/>
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" x14ac:dyDescent="0.35"/>
-    <row r="148" x14ac:dyDescent="0.35"/>
-    <row r="149" x14ac:dyDescent="0.35"/>
-    <row r="150" x14ac:dyDescent="0.35"/>
-    <row r="151" x14ac:dyDescent="0.35"/>
-    <row r="152" x14ac:dyDescent="0.35"/>
-    <row r="153" x14ac:dyDescent="0.35"/>
-    <row r="154" x14ac:dyDescent="0.35"/>
-    <row r="155" x14ac:dyDescent="0.35"/>
-    <row r="156" x14ac:dyDescent="0.35"/>
-    <row r="157" x14ac:dyDescent="0.35"/>
-    <row r="158" x14ac:dyDescent="0.35"/>
-    <row r="159" x14ac:dyDescent="0.35"/>
-    <row r="160" x14ac:dyDescent="0.35"/>
-    <row r="161" x14ac:dyDescent="0.35"/>
-    <row r="162" x14ac:dyDescent="0.35"/>
-    <row r="163" x14ac:dyDescent="0.35"/>
-    <row r="164" x14ac:dyDescent="0.35"/>
-    <row r="165" x14ac:dyDescent="0.35"/>
-    <row r="166" x14ac:dyDescent="0.35"/>
-    <row r="167" x14ac:dyDescent="0.35"/>
-    <row r="168" x14ac:dyDescent="0.35"/>
-    <row r="169" x14ac:dyDescent="0.35"/>
-    <row r="170" x14ac:dyDescent="0.35"/>
-    <row r="171" x14ac:dyDescent="0.35"/>
-    <row r="172" x14ac:dyDescent="0.35"/>
-    <row r="173" x14ac:dyDescent="0.35"/>
-    <row r="174" x14ac:dyDescent="0.35"/>
-    <row r="175" x14ac:dyDescent="0.35"/>
-    <row r="176" x14ac:dyDescent="0.35"/>
-    <row r="177" x14ac:dyDescent="0.35"/>
-    <row r="178" x14ac:dyDescent="0.35"/>
-    <row r="179" x14ac:dyDescent="0.35"/>
-    <row r="180" x14ac:dyDescent="0.35"/>
-    <row r="181" x14ac:dyDescent="0.35"/>
-    <row r="182" x14ac:dyDescent="0.35"/>
-    <row r="183" x14ac:dyDescent="0.35"/>
-    <row r="184" x14ac:dyDescent="0.35"/>
-    <row r="185" x14ac:dyDescent="0.35"/>
-    <row r="186" x14ac:dyDescent="0.35"/>
-    <row r="187" x14ac:dyDescent="0.35"/>
-    <row r="188" x14ac:dyDescent="0.35"/>
-    <row r="189" x14ac:dyDescent="0.35"/>
-    <row r="190" x14ac:dyDescent="0.35"/>
-    <row r="191" x14ac:dyDescent="0.35"/>
-    <row r="192" x14ac:dyDescent="0.35"/>
-    <row r="193" x14ac:dyDescent="0.35"/>
-    <row r="194" x14ac:dyDescent="0.35"/>
-    <row r="195" x14ac:dyDescent="0.35"/>
-    <row r="196" x14ac:dyDescent="0.35"/>
-    <row r="197" x14ac:dyDescent="0.35"/>
-    <row r="198" x14ac:dyDescent="0.35"/>
-    <row r="199" x14ac:dyDescent="0.35"/>
-    <row r="200" x14ac:dyDescent="0.35"/>
-    <row r="201" x14ac:dyDescent="0.35"/>
-    <row r="202" x14ac:dyDescent="0.35"/>
-    <row r="203" x14ac:dyDescent="0.35"/>
-    <row r="204" x14ac:dyDescent="0.35"/>
-    <row r="205" x14ac:dyDescent="0.35"/>
-    <row r="206" x14ac:dyDescent="0.35"/>
-    <row r="207" x14ac:dyDescent="0.35"/>
-    <row r="208" x14ac:dyDescent="0.35"/>
-    <row r="209" x14ac:dyDescent="0.35"/>
-    <row r="210" x14ac:dyDescent="0.35"/>
-    <row r="211" x14ac:dyDescent="0.35"/>
-    <row r="212" x14ac:dyDescent="0.35"/>
-    <row r="213" x14ac:dyDescent="0.35"/>
-    <row r="214" x14ac:dyDescent="0.35"/>
-    <row r="215" x14ac:dyDescent="0.35"/>
-    <row r="216" x14ac:dyDescent="0.35"/>
-    <row r="217" x14ac:dyDescent="0.35"/>
-    <row r="218" x14ac:dyDescent="0.35"/>
-    <row r="219" x14ac:dyDescent="0.35"/>
-    <row r="220" x14ac:dyDescent="0.35"/>
-    <row r="221" x14ac:dyDescent="0.35"/>
-    <row r="222" x14ac:dyDescent="0.35"/>
-    <row r="223" x14ac:dyDescent="0.35"/>
-    <row r="224" x14ac:dyDescent="0.35"/>
-    <row r="225" x14ac:dyDescent="0.35"/>
-    <row r="226" x14ac:dyDescent="0.35"/>
-    <row r="227" x14ac:dyDescent="0.35"/>
-    <row r="228" x14ac:dyDescent="0.35"/>
-    <row r="229" x14ac:dyDescent="0.35"/>
-    <row r="230" x14ac:dyDescent="0.35"/>
-    <row r="231" x14ac:dyDescent="0.35"/>
-    <row r="232" x14ac:dyDescent="0.35"/>
-    <row r="233" x14ac:dyDescent="0.35"/>
-    <row r="234" x14ac:dyDescent="0.35"/>
-    <row r="235" x14ac:dyDescent="0.35"/>
-    <row r="236" x14ac:dyDescent="0.35"/>
-    <row r="237" x14ac:dyDescent="0.35"/>
-    <row r="238" x14ac:dyDescent="0.35"/>
-    <row r="239" x14ac:dyDescent="0.35"/>
-    <row r="240" x14ac:dyDescent="0.35"/>
-    <row r="241" x14ac:dyDescent="0.35"/>
-    <row r="242" x14ac:dyDescent="0.35"/>
-    <row r="243" x14ac:dyDescent="0.35"/>
-    <row r="244" x14ac:dyDescent="0.35"/>
-    <row r="245" x14ac:dyDescent="0.35"/>
-    <row r="246" x14ac:dyDescent="0.35"/>
-    <row r="247" x14ac:dyDescent="0.35"/>
-    <row r="248" x14ac:dyDescent="0.35"/>
-    <row r="249" x14ac:dyDescent="0.35"/>
-    <row r="250" x14ac:dyDescent="0.35"/>
-    <row r="251" x14ac:dyDescent="0.35"/>
-    <row r="252" x14ac:dyDescent="0.35"/>
-    <row r="253" x14ac:dyDescent="0.35"/>
-    <row r="254" x14ac:dyDescent="0.35"/>
-    <row r="255" x14ac:dyDescent="0.35"/>
-    <row r="256" x14ac:dyDescent="0.35"/>
-    <row r="257" x14ac:dyDescent="0.35"/>
-    <row r="258" x14ac:dyDescent="0.35"/>
-    <row r="259" x14ac:dyDescent="0.35"/>
-    <row r="260" x14ac:dyDescent="0.35"/>
-    <row r="261" x14ac:dyDescent="0.35"/>
-    <row r="262" x14ac:dyDescent="0.35"/>
-    <row r="263" x14ac:dyDescent="0.35"/>
-    <row r="264" x14ac:dyDescent="0.35"/>
-    <row r="265" x14ac:dyDescent="0.35"/>
-    <row r="266" x14ac:dyDescent="0.35"/>
-    <row r="267" x14ac:dyDescent="0.35"/>
-    <row r="268" x14ac:dyDescent="0.35"/>
-    <row r="269" x14ac:dyDescent="0.35"/>
-    <row r="270" x14ac:dyDescent="0.35"/>
-    <row r="271" x14ac:dyDescent="0.35"/>
-    <row r="272" x14ac:dyDescent="0.35"/>
-    <row r="273" x14ac:dyDescent="0.35"/>
-    <row r="274" x14ac:dyDescent="0.35"/>
-    <row r="275" x14ac:dyDescent="0.35"/>
-    <row r="276" x14ac:dyDescent="0.35"/>
-    <row r="277" x14ac:dyDescent="0.35"/>
-    <row r="278" x14ac:dyDescent="0.35"/>
-    <row r="279" x14ac:dyDescent="0.35"/>
-    <row r="280" x14ac:dyDescent="0.35"/>
-    <row r="281" x14ac:dyDescent="0.35"/>
-    <row r="282" x14ac:dyDescent="0.35"/>
-    <row r="283" x14ac:dyDescent="0.35"/>
-    <row r="284" x14ac:dyDescent="0.35"/>
-    <row r="285" x14ac:dyDescent="0.35"/>
-    <row r="286" x14ac:dyDescent="0.35"/>
-    <row r="287" x14ac:dyDescent="0.35"/>
-    <row r="288" x14ac:dyDescent="0.35"/>
-    <row r="289" x14ac:dyDescent="0.35"/>
-    <row r="290" x14ac:dyDescent="0.35"/>
-    <row r="291" x14ac:dyDescent="0.35"/>
-    <row r="292" x14ac:dyDescent="0.35"/>
-    <row r="293" x14ac:dyDescent="0.35"/>
-    <row r="294" x14ac:dyDescent="0.35"/>
-    <row r="295" x14ac:dyDescent="0.35"/>
-    <row r="296" x14ac:dyDescent="0.35"/>
-    <row r="297" x14ac:dyDescent="0.35"/>
-    <row r="298" x14ac:dyDescent="0.35"/>
-    <row r="299" x14ac:dyDescent="0.35"/>
-    <row r="300" x14ac:dyDescent="0.35"/>
-    <row r="301" x14ac:dyDescent="0.35"/>
-    <row r="302" x14ac:dyDescent="0.35"/>
-    <row r="303" x14ac:dyDescent="0.35"/>
-    <row r="304" x14ac:dyDescent="0.35"/>
-    <row r="305" x14ac:dyDescent="0.35"/>
-    <row r="306" x14ac:dyDescent="0.35"/>
-    <row r="307" x14ac:dyDescent="0.35"/>
-    <row r="308" x14ac:dyDescent="0.35"/>
-    <row r="309" x14ac:dyDescent="0.35"/>
-    <row r="310" x14ac:dyDescent="0.35"/>
-    <row r="311" x14ac:dyDescent="0.35"/>
-    <row r="312" x14ac:dyDescent="0.35"/>
-    <row r="313" x14ac:dyDescent="0.35"/>
-    <row r="314" x14ac:dyDescent="0.35"/>
-    <row r="315" x14ac:dyDescent="0.35"/>
-    <row r="316" x14ac:dyDescent="0.35"/>
-    <row r="317" x14ac:dyDescent="0.35"/>
-    <row r="318" x14ac:dyDescent="0.35"/>
-    <row r="319" x14ac:dyDescent="0.35"/>
-    <row r="320" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" x14ac:dyDescent="0.25"/>
+    <row r="148" x14ac:dyDescent="0.25"/>
+    <row r="149" x14ac:dyDescent="0.25"/>
+    <row r="150" x14ac:dyDescent="0.25"/>
+    <row r="151" x14ac:dyDescent="0.25"/>
+    <row r="152" x14ac:dyDescent="0.25"/>
+    <row r="153" x14ac:dyDescent="0.25"/>
+    <row r="154" x14ac:dyDescent="0.25"/>
+    <row r="155" x14ac:dyDescent="0.25"/>
+    <row r="156" x14ac:dyDescent="0.25"/>
+    <row r="157" x14ac:dyDescent="0.25"/>
+    <row r="158" x14ac:dyDescent="0.25"/>
+    <row r="159" x14ac:dyDescent="0.25"/>
+    <row r="160" x14ac:dyDescent="0.25"/>
+    <row r="161" x14ac:dyDescent="0.25"/>
+    <row r="162" x14ac:dyDescent="0.25"/>
+    <row r="163" x14ac:dyDescent="0.25"/>
+    <row r="164" x14ac:dyDescent="0.25"/>
+    <row r="165" x14ac:dyDescent="0.25"/>
+    <row r="166" x14ac:dyDescent="0.25"/>
+    <row r="167" x14ac:dyDescent="0.25"/>
+    <row r="168" x14ac:dyDescent="0.25"/>
+    <row r="169" x14ac:dyDescent="0.25"/>
+    <row r="170" x14ac:dyDescent="0.25"/>
+    <row r="171" x14ac:dyDescent="0.25"/>
+    <row r="172" x14ac:dyDescent="0.25"/>
+    <row r="173" x14ac:dyDescent="0.25"/>
+    <row r="174" x14ac:dyDescent="0.25"/>
+    <row r="175" x14ac:dyDescent="0.25"/>
+    <row r="176" x14ac:dyDescent="0.25"/>
+    <row r="177" x14ac:dyDescent="0.25"/>
+    <row r="178" x14ac:dyDescent="0.25"/>
+    <row r="179" x14ac:dyDescent="0.25"/>
+    <row r="180" x14ac:dyDescent="0.25"/>
+    <row r="181" x14ac:dyDescent="0.25"/>
+    <row r="182" x14ac:dyDescent="0.25"/>
+    <row r="183" x14ac:dyDescent="0.25"/>
+    <row r="184" x14ac:dyDescent="0.25"/>
+    <row r="185" x14ac:dyDescent="0.25"/>
+    <row r="186" x14ac:dyDescent="0.25"/>
+    <row r="187" x14ac:dyDescent="0.25"/>
+    <row r="188" x14ac:dyDescent="0.25"/>
+    <row r="189" x14ac:dyDescent="0.25"/>
+    <row r="190" x14ac:dyDescent="0.25"/>
+    <row r="191" x14ac:dyDescent="0.25"/>
+    <row r="192" x14ac:dyDescent="0.25"/>
+    <row r="193" x14ac:dyDescent="0.25"/>
+    <row r="194" x14ac:dyDescent="0.25"/>
+    <row r="195" x14ac:dyDescent="0.25"/>
+    <row r="196" x14ac:dyDescent="0.25"/>
+    <row r="197" x14ac:dyDescent="0.25"/>
+    <row r="198" x14ac:dyDescent="0.25"/>
+    <row r="199" x14ac:dyDescent="0.25"/>
+    <row r="200" x14ac:dyDescent="0.25"/>
+    <row r="201" x14ac:dyDescent="0.25"/>
+    <row r="202" x14ac:dyDescent="0.25"/>
+    <row r="203" x14ac:dyDescent="0.25"/>
+    <row r="204" x14ac:dyDescent="0.25"/>
+    <row r="205" x14ac:dyDescent="0.25"/>
+    <row r="206" x14ac:dyDescent="0.25"/>
+    <row r="207" x14ac:dyDescent="0.25"/>
+    <row r="208" x14ac:dyDescent="0.25"/>
+    <row r="209" x14ac:dyDescent="0.25"/>
+    <row r="210" x14ac:dyDescent="0.25"/>
+    <row r="211" x14ac:dyDescent="0.25"/>
+    <row r="212" x14ac:dyDescent="0.25"/>
+    <row r="213" x14ac:dyDescent="0.25"/>
+    <row r="214" x14ac:dyDescent="0.25"/>
+    <row r="215" x14ac:dyDescent="0.25"/>
+    <row r="216" x14ac:dyDescent="0.25"/>
+    <row r="217" x14ac:dyDescent="0.25"/>
+    <row r="218" x14ac:dyDescent="0.25"/>
+    <row r="219" x14ac:dyDescent="0.25"/>
+    <row r="220" x14ac:dyDescent="0.25"/>
+    <row r="221" x14ac:dyDescent="0.25"/>
+    <row r="222" x14ac:dyDescent="0.25"/>
+    <row r="223" x14ac:dyDescent="0.25"/>
+    <row r="224" x14ac:dyDescent="0.25"/>
+    <row r="225" x14ac:dyDescent="0.25"/>
+    <row r="226" x14ac:dyDescent="0.25"/>
+    <row r="227" x14ac:dyDescent="0.25"/>
+    <row r="228" x14ac:dyDescent="0.25"/>
+    <row r="229" x14ac:dyDescent="0.25"/>
+    <row r="230" x14ac:dyDescent="0.25"/>
+    <row r="231" x14ac:dyDescent="0.25"/>
+    <row r="232" x14ac:dyDescent="0.25"/>
+    <row r="233" x14ac:dyDescent="0.25"/>
+    <row r="234" x14ac:dyDescent="0.25"/>
+    <row r="235" x14ac:dyDescent="0.25"/>
+    <row r="236" x14ac:dyDescent="0.25"/>
+    <row r="237" x14ac:dyDescent="0.25"/>
+    <row r="238" x14ac:dyDescent="0.25"/>
+    <row r="239" x14ac:dyDescent="0.25"/>
+    <row r="240" x14ac:dyDescent="0.25"/>
+    <row r="241" x14ac:dyDescent="0.25"/>
+    <row r="242" x14ac:dyDescent="0.25"/>
+    <row r="243" x14ac:dyDescent="0.25"/>
+    <row r="244" x14ac:dyDescent="0.25"/>
+    <row r="245" x14ac:dyDescent="0.25"/>
+    <row r="246" x14ac:dyDescent="0.25"/>
+    <row r="247" x14ac:dyDescent="0.25"/>
+    <row r="248" x14ac:dyDescent="0.25"/>
+    <row r="249" x14ac:dyDescent="0.25"/>
+    <row r="250" x14ac:dyDescent="0.25"/>
+    <row r="251" x14ac:dyDescent="0.25"/>
+    <row r="252" x14ac:dyDescent="0.25"/>
+    <row r="253" x14ac:dyDescent="0.25"/>
+    <row r="254" x14ac:dyDescent="0.25"/>
+    <row r="255" x14ac:dyDescent="0.25"/>
+    <row r="256" x14ac:dyDescent="0.25"/>
+    <row r="257" x14ac:dyDescent="0.25"/>
+    <row r="258" x14ac:dyDescent="0.25"/>
+    <row r="259" x14ac:dyDescent="0.25"/>
+    <row r="260" x14ac:dyDescent="0.25"/>
+    <row r="261" x14ac:dyDescent="0.25"/>
+    <row r="262" x14ac:dyDescent="0.25"/>
+    <row r="263" x14ac:dyDescent="0.25"/>
+    <row r="264" x14ac:dyDescent="0.25"/>
+    <row r="265" x14ac:dyDescent="0.25"/>
+    <row r="266" x14ac:dyDescent="0.25"/>
+    <row r="267" x14ac:dyDescent="0.25"/>
+    <row r="268" x14ac:dyDescent="0.25"/>
+    <row r="269" x14ac:dyDescent="0.25"/>
+    <row r="270" x14ac:dyDescent="0.25"/>
+    <row r="271" x14ac:dyDescent="0.25"/>
+    <row r="272" x14ac:dyDescent="0.25"/>
+    <row r="273" x14ac:dyDescent="0.25"/>
+    <row r="274" x14ac:dyDescent="0.25"/>
+    <row r="275" x14ac:dyDescent="0.25"/>
+    <row r="276" x14ac:dyDescent="0.25"/>
+    <row r="277" x14ac:dyDescent="0.25"/>
+    <row r="278" x14ac:dyDescent="0.25"/>
+    <row r="279" x14ac:dyDescent="0.25"/>
+    <row r="280" x14ac:dyDescent="0.25"/>
+    <row r="281" x14ac:dyDescent="0.25"/>
+    <row r="282" x14ac:dyDescent="0.25"/>
+    <row r="283" x14ac:dyDescent="0.25"/>
+    <row r="284" x14ac:dyDescent="0.25"/>
+    <row r="285" x14ac:dyDescent="0.25"/>
+    <row r="286" x14ac:dyDescent="0.25"/>
+    <row r="287" x14ac:dyDescent="0.25"/>
+    <row r="288" x14ac:dyDescent="0.25"/>
+    <row r="289" x14ac:dyDescent="0.25"/>
+    <row r="290" x14ac:dyDescent="0.25"/>
+    <row r="291" x14ac:dyDescent="0.25"/>
+    <row r="292" x14ac:dyDescent="0.25"/>
+    <row r="293" x14ac:dyDescent="0.25"/>
+    <row r="294" x14ac:dyDescent="0.25"/>
+    <row r="295" x14ac:dyDescent="0.25"/>
+    <row r="296" x14ac:dyDescent="0.25"/>
+    <row r="297" x14ac:dyDescent="0.25"/>
+    <row r="298" x14ac:dyDescent="0.25"/>
+    <row r="299" x14ac:dyDescent="0.25"/>
+    <row r="300" x14ac:dyDescent="0.25"/>
+    <row r="301" x14ac:dyDescent="0.25"/>
+    <row r="302" x14ac:dyDescent="0.25"/>
+    <row r="303" x14ac:dyDescent="0.25"/>
+    <row r="304" x14ac:dyDescent="0.25"/>
+    <row r="305" x14ac:dyDescent="0.25"/>
+    <row r="306" x14ac:dyDescent="0.25"/>
+    <row r="307" x14ac:dyDescent="0.25"/>
+    <row r="308" x14ac:dyDescent="0.25"/>
+    <row r="309" x14ac:dyDescent="0.25"/>
+    <row r="310" x14ac:dyDescent="0.25"/>
+    <row r="311" x14ac:dyDescent="0.25"/>
+    <row r="312" x14ac:dyDescent="0.25"/>
+    <row r="313" x14ac:dyDescent="0.25"/>
+    <row r="314" x14ac:dyDescent="0.25"/>
+    <row r="315" x14ac:dyDescent="0.25"/>
+    <row r="316" x14ac:dyDescent="0.25"/>
+    <row r="317" x14ac:dyDescent="0.25"/>
+    <row r="318" x14ac:dyDescent="0.25"/>
+    <row r="319" x14ac:dyDescent="0.25"/>
+    <row r="320" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C13:D15"/>
